--- a/src/attributions/attributions_saliency_traj_238.xlsx
+++ b/src/attributions/attributions_saliency_traj_238.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3565399944782257</v>
+        <v>0.3047280609607697</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09788807481527328</v>
+        <v>0.04031389951705933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1330247223377228</v>
+        <v>0.03484270349144936</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3257969915866852</v>
+        <v>0.03803393244743347</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07800994068384171</v>
+        <v>0.1936643421649933</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01946781575679779</v>
+        <v>0.009654183872044086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07765160501003265</v>
+        <v>0.09138882905244827</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001197165809571743</v>
+        <v>0.03854655846953392</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05986388027667999</v>
+        <v>0.02979231439530849</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3140308260917664</v>
+        <v>0.3371071815490723</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01671092957258224</v>
+        <v>0.02615870162844658</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1699717044830322</v>
+        <v>0.003512779250741005</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2153026014566422</v>
+        <v>0.01957922987639904</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1200748383998871</v>
+        <v>0.204264372587204</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0306316576898098</v>
+        <v>0.01070056762546301</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05597697198390961</v>
+        <v>0.04858287796378136</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01933569833636284</v>
+        <v>0.01438765227794647</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04150423407554626</v>
+        <v>0.01818365231156349</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04484646767377853</v>
+        <v>0.0134844733402133</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0003615431487560272</v>
+        <v>0.03386763110756874</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04972920566797256</v>
+        <v>0.00190241273958236</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03712518513202667</v>
+        <v>0.0312100388109684</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01105075050145388</v>
+        <v>0.01202838867902756</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02763527072966099</v>
+        <v>0.01732169650495052</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01084579899907112</v>
+        <v>0.008852339349687099</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01097797602415085</v>
+        <v>0.05650408938527107</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05476105958223343</v>
+        <v>0.01234558690339327</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0794091671705246</v>
+        <v>0.0009872745722532272</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.007604412734508514</v>
+        <v>0.03018476068973541</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02295092865824699</v>
+        <v>0.005935279652476311</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.07622481137514114</v>
+        <v>0.005941956304013729</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02812692150473595</v>
+        <v>0.007891359739005566</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.02738936617970467</v>
+        <v>0.02192851714789867</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.03716406598687172</v>
+        <v>0.03809833154082298</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0404125489294529</v>
+        <v>0.05072062462568283</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.03526417538523674</v>
+        <v>0.001647663535550237</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.06135346367955208</v>
+        <v>0.07609082013368607</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.03808680921792984</v>
+        <v>0.01023329515010118</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.02880483493208885</v>
+        <v>0.01792779564857483</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.06000004708766937</v>
+        <v>0.04721303656697273</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0466078445315361</v>
+        <v>0.01193089783191681</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0009876274270936847</v>
+        <v>0.0150627950206399</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.002930852118879557</v>
+        <v>0.01459065452218056</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.06122531741857529</v>
+        <v>0.03733907639980316</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.01653406769037247</v>
+        <v>0.004759388510137796</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.164131224155426</v>
+        <v>0.1469779312610626</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.02684555575251579</v>
+        <v>0.02418005280196667</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.09809067845344543</v>
+        <v>0.04445551708340645</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.08303768932819366</v>
+        <v>0.014552878215909</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01625557616353035</v>
+        <v>0.1680318862199783</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0939226821064949</v>
+        <v>0.03448010981082916</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.07713565230369568</v>
+        <v>0.009740606881678104</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.1465490013360977</v>
+        <v>0.05622608959674835</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.07210224866867065</v>
+        <v>0.001396307488903403</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.1014266312122345</v>
+        <v>0.09451810270547867</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.03810609132051468</v>
+        <v>0.05566703900694847</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.04007954150438309</v>
+        <v>0.05233917757868767</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.09877105802297592</v>
+        <v>0.06563108414411545</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.01383482106029987</v>
+        <v>0.00398848345503211</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.02404347434639931</v>
+        <v>0.003172060009092093</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.05954695865511894</v>
+        <v>0.0106057757511735</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.1405974477529526</v>
+        <v>0.02054981514811516</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.02646638453006744</v>
+        <v>0.03784701228141785</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.03752739354968071</v>
+        <v>0.01785924285650253</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.03052970394492149</v>
+        <v>0.01570795103907585</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.04063316062092781</v>
+        <v>0.01678985357284546</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.02659871801733971</v>
+        <v>0.0401427298784256</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.05653386190533638</v>
+        <v>0.03175514191389084</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.03237906470894814</v>
+        <v>0.01660769246518612</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.01675435714423656</v>
+        <v>0.01994584314525127</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.05836981162428856</v>
+        <v>0.01234506256878376</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.04767899960279465</v>
+        <v>0.008973845280706882</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.1444748491048813</v>
+        <v>0.09240546822547913</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.05042579025030136</v>
+        <v>0.00760707026347518</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.004620798863470554</v>
+        <v>0.03561124205589294</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.1091674342751503</v>
+        <v>0.009914588183164597</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.009697852656245232</v>
+        <v>0.07494331896305084</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.04540204629302025</v>
+        <v>0.01557077839970589</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02538204193115234</v>
+        <v>0.006886946968734264</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.04315853863954544</v>
+        <v>0.06626276671886444</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.05813691392540932</v>
+        <v>0.01478472072631121</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.07628440856933594</v>
+        <v>0.05614565685391426</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.05986102670431137</v>
+        <v>0.01830398105084896</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.03607675805687904</v>
+        <v>0.003945534583181143</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.06075717508792877</v>
+        <v>0.01163965277373791</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00076679652556777</v>
+        <v>0.03315668925642967</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.01339719071984291</v>
+        <v>0.01095587480813265</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0162203423678875</v>
+        <v>0.01366464607417583</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0108279837295413</v>
+        <v>0.03843182325363159</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.01221441384404898</v>
+        <v>0.0008912574267014861</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0736921951174736</v>
+        <v>0.006383052561432123</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0190119557082653</v>
+        <v>0.01890894211828709</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.007808592170476913</v>
+        <v>0.03185372799634933</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0424916110932827</v>
+        <v>0.034366674721241</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.1306598335504532</v>
+        <v>0.002081248443573713</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00558259803801775</v>
+        <v>0.02082573436200619</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.05358679220080376</v>
+        <v>0.06345541775226593</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.09223617613315582</v>
+        <v>0.04495398327708244</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.03767621517181396</v>
+        <v>0.01833763718605042</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0664220005273819</v>
+        <v>0.0497884601354599</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.06457434594631195</v>
+        <v>0.01071661338210106</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.03235954791307449</v>
+        <v>0.005831078160554171</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.03138530999422073</v>
+        <v>0.008505631238222122</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00715957535430789</v>
+        <v>0.03310156241059303</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.02334079705178738</v>
+        <v>0.01091929990798235</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.02684349194169044</v>
+        <v>0.03117059171199799</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.006024995353072882</v>
+        <v>0.02672149054706097</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.001790969050489366</v>
+        <v>0.004582919180393219</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.08739440143108368</v>
+        <v>0.0102551281452179</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.1683943122625351</v>
+        <v>0.01411409862339497</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.07310828566551208</v>
+        <v>0.0171729139983654</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.08812151104211807</v>
+        <v>0.05114022642374039</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.12336266040802</v>
+        <v>0.05525059998035431</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.05924488604068756</v>
+        <v>0.01020468212664127</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02117317169904709</v>
+        <v>0.01820040866732597</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.04709819331765175</v>
+        <v>0.06887609511613846</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.02913238480687141</v>
+        <v>0.03925766423344612</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.02422173693776131</v>
+        <v>0.004362276755273342</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.09177578240633011</v>
+        <v>0.005339668598026037</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.04028797149658203</v>
+        <v>0.02206104435026646</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0005853511393070221</v>
+        <v>0.01555200666189194</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02280684933066368</v>
+        <v>0.002447612583637238</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.08518356829881668</v>
+        <v>0.0346430130302906</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.04923730343580246</v>
+        <v>0.005494819022715092</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.05092910677194595</v>
+        <v>0.05907269567251205</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.05698448792099953</v>
+        <v>0.01249098684638739</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.04310166090726852</v>
+        <v>0.007022696081548929</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.05344421416521072</v>
+        <v>0.00440323119983077</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.006092247553169727</v>
+        <v>7.929117418825626e-05</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.02970458939671516</v>
+        <v>0.003823204431682825</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.04143529012799263</v>
+        <v>0.01078879274427891</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0254911296069622</v>
+        <v>0.006007042713463306</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.02644501626491547</v>
+        <v>0.0145572405308485</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.02548628114163876</v>
+        <v>0.02360304445028305</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.05843520909547806</v>
+        <v>0.01241779141128063</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.1017699092626572</v>
+        <v>0.06589038670063019</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.09845876693725586</v>
+        <v>0.01650291681289673</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.02586368098855019</v>
+        <v>0.007359249051660299</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.05911710858345032</v>
+        <v>0.0002420265227556229</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.046724583953619</v>
+        <v>0.03238760679960251</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.06389729678630829</v>
+        <v>0.005681025795638561</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.009583821520209312</v>
+        <v>0.001080001471564174</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0153921889141202</v>
+        <v>0.02750277332961559</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.04073114320635796</v>
+        <v>0.005023045465350151</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.00652705505490303</v>
+        <v>0.02438493445515633</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.05933719128370285</v>
+        <v>0.03404048457741737</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.02329182811081409</v>
+        <v>0.02061543613672256</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0528949536383152</v>
+        <v>0.01742257736623287</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.004668693989515305</v>
+        <v>0.05396681278944016</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.03589156270027161</v>
+        <v>0.01812233589589596</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02801880426704884</v>
+        <v>0.05734897032380104</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.02970410324633121</v>
+        <v>0.008971855975687504</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.008069817908108234</v>
+        <v>0.007962034083902836</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.07874179631471634</v>
+        <v>0.04686656966805458</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.04842537268996239</v>
+        <v>0.01209345553070307</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.03535109385848045</v>
+        <v>0.001415698789060116</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.04220306873321533</v>
+        <v>0.01176196616142988</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.006361359730362892</v>
+        <v>0.03028561174869537</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.004259884357452393</v>
+        <v>0.01387646608054638</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.02811879105865955</v>
+        <v>0.01326046604663134</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.006241948809474707</v>
+        <v>0.04156066849827766</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.004201929084956646</v>
+        <v>0.002431974280625582</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0398169532418251</v>
+        <v>0.04069139435887337</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.02220623567700386</v>
+        <v>0.02363085560500622</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.01425091363489628</v>
+        <v>0.0111994156613946</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.007265552878379822</v>
+        <v>0.03232435882091522</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.008221778087317944</v>
+        <v>0.02520651742815971</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.01540551334619522</v>
+        <v>0.008918724954128265</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.02117360383272171</v>
+        <v>0.00545360054820776</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.03268170729279518</v>
+        <v>0.01755297742784023</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.002936202101409435</v>
+        <v>0.009872265160083771</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.02313547767698765</v>
+        <v>0.06851372122764587</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.08003982901573181</v>
+        <v>0.07946062088012695</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.02098355069756508</v>
+        <v>0.01578042283654213</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.1820304095745087</v>
+        <v>0.03372898697853088</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00715530663728714</v>
+        <v>0.02944321744143963</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.01101354416459799</v>
+        <v>0.01128576509654522</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.06442270427942276</v>
+        <v>0.05095010623335838</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.04241251572966576</v>
+        <v>0.004262912087142467</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.05268487334251404</v>
+        <v>0.01024270430207253</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.03542485460639</v>
+        <v>0.02703236974775791</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.002428626175969839</v>
+        <v>0.01690181903541088</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.004998426884412766</v>
+        <v>0.02049661055207253</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.04025381058454514</v>
+        <v>0.04715245962142944</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.1534278392791748</v>
+        <v>0.06295207142829895</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.006315279752016068</v>
+        <v>0.02756733074784279</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.04685976728796959</v>
+        <v>0.0005693255225196481</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.1183527335524559</v>
+        <v>0.015984071418643</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.001416227780282497</v>
+        <v>0.02051505818963051</v>
       </c>
     </row>
     <row r="3">
@@ -2142,571 +2142,571 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003535561729222536</v>
+        <v>0.004332595970481634</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0004579586384352297</v>
+        <v>0.04557536914944649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002768134931102395</v>
+        <v>0.002068584784865379</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001825811341404915</v>
+        <v>0.005134433973580599</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0009781572734937072</v>
+        <v>0.001454245066270232</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004222527786623687</v>
+        <v>0.03325117751955986</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0007505741668865085</v>
+        <v>0.002673273906111717</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0006241253577172756</v>
+        <v>0.002291833283379674</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001193478005006909</v>
+        <v>0.01907985657453537</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003596644382923841</v>
+        <v>0.006009974516928196</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003590878623072058</v>
+        <v>0.0472227931022644</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003242596983909607</v>
+        <v>0.0004912731237709522</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000916795979719609</v>
+        <v>0.009921425022184849</v>
       </c>
       <c r="N4" t="n">
-        <v>3.648263736977242e-05</v>
+        <v>0.01179980114102364</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0002568301279097795</v>
+        <v>0.02495125308632851</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001208671485073864</v>
+        <v>0.004607814829796553</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0007404240313917398</v>
+        <v>0.0001189019531011581</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001763517619110644</v>
+        <v>0.009500080719590187</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0003283633850514889</v>
+        <v>0.0009323079138994217</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0009057517163455486</v>
+        <v>0.001775504788383842</v>
       </c>
       <c r="U4" t="n">
-        <v>6.148392276372761e-05</v>
+        <v>0.008918718434870243</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0002846619463525712</v>
+        <v>0.002356254495680332</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0006220063078217208</v>
+        <v>0.005548353306949139</v>
       </c>
       <c r="X4" t="n">
-        <v>0.000241185916820541</v>
+        <v>0.007009109016507864</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0003383283910807222</v>
+        <v>0.001386214746162295</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0008311890414915979</v>
+        <v>0.0008794319583103061</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0004369157250039279</v>
+        <v>0.0008622009190730751</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.072948548942804e-05</v>
+        <v>0.003445598529651761</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0001949174329638481</v>
+        <v>0.001905561191961169</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0003732764744199812</v>
+        <v>0.007849929854273796</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0002833471517078578</v>
+        <v>0.002301850356161594</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0003078889567404985</v>
+        <v>0.004791352897882462</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0002719966287259012</v>
+        <v>0.002059917664155364</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0003820729034487158</v>
+        <v>0.000542035442776978</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0008828790159896016</v>
+        <v>9.760569082573056e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0008497882517986</v>
+        <v>0.00318119814619422</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.000610052200499922</v>
+        <v>0.007665263954550028</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.001397731713950634</v>
+        <v>0.003193533513695002</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0001819827011786401</v>
+        <v>0.01163969561457634</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0009473097743466496</v>
+        <v>0.0004677952383644879</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0002796786720864475</v>
+        <v>0.004636982455849648</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0001493450254201889</v>
+        <v>0.003690420184284449</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6.711779860779643e-07</v>
+        <v>0.003660670015960932</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.557992335525341e-05</v>
+        <v>0.004004308953881264</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.452973058097996e-05</v>
+        <v>0.002545757917687297</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.001418763305991888</v>
+        <v>5.873397458344698e-05</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.001188140944577754</v>
+        <v>0.03786615654826164</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.001696492778137326</v>
+        <v>0.01561802439391613</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0004075832548551261</v>
+        <v>0.002667334629222751</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.050078546744771e-05</v>
+        <v>0.009186467155814171</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.00104328291490674</v>
+        <v>0.009752935729920864</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.000474972213851288</v>
+        <v>0.004050018265843391</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0007018096512183547</v>
+        <v>0.004740250762552023</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0003833968366961926</v>
+        <v>0.01146756298840046</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.0007991035236045718</v>
+        <v>0.005448142532259226</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0002309084229636937</v>
+        <v>0.0134234894067049</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.001000267220661044</v>
+        <v>0.006549826823174953</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0001857465249486268</v>
+        <v>0.001750897848978639</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0001706147450022399</v>
+        <v>0.003058173228055239</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0005998859996907413</v>
+        <v>0.0221325121819973</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0007162240799516439</v>
+        <v>0.0005219071172177792</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0008362713851965964</v>
+        <v>0.004725469276309013</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0005648300284519792</v>
+        <v>0.007307708729058504</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0005136890104040504</v>
+        <v>0.006962165702134371</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0005577666452154517</v>
+        <v>0.005412451922893524</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0006521745235659182</v>
+        <v>0.003590327687561512</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0001484412350691855</v>
+        <v>0.008139690384268761</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0009081516764126718</v>
+        <v>0.00519825192168355</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.0001864497462520376</v>
+        <v>0.001381882466375828</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0002767066762316972</v>
+        <v>0.007752676960080862</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0003478372818790376</v>
+        <v>0.006167997606098652</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0002672636474017054</v>
+        <v>0.002269637538120151</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.001324768294580281</v>
+        <v>0.002384784631431103</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0007877487223595381</v>
+        <v>0.01929259859025478</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.000561841472517699</v>
+        <v>0.01060118712484837</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.001365727977827191</v>
+        <v>0.001117450417950749</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.0005000243545509875</v>
+        <v>0.007226164918392897</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0002226599754067138</v>
+        <v>0.002470838138833642</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0002425362763460726</v>
+        <v>0.002558009466156363</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.0005444831331260502</v>
+        <v>0.003695037681609392</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0003699588123708963</v>
+        <v>0.004159695468842983</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.0007165733259171247</v>
+        <v>0.0005769897252321243</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.001064896117895842</v>
+        <v>0.00648847920820117</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0005560772842727602</v>
+        <v>0.002379060722887516</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0002347919507883489</v>
+        <v>0.0009502639295533299</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.000116722410893999</v>
+        <v>0.0003007575869560242</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.0001909068378154188</v>
+        <v>0.007958501577377319</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.0001199909165734425</v>
+        <v>0.001711237942799926</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.0002421808603685349</v>
+        <v>0.002344937063753605</v>
       </c>
       <c r="CL4" t="n">
-        <v>5.06602882524021e-05</v>
+        <v>0.0003604552475735545</v>
       </c>
       <c r="CM4" t="n">
-        <v>9.524862980470061e-05</v>
+        <v>0.006553803570568562</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0008356206235475838</v>
+        <v>0.01176016684621572</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0004617064550984651</v>
+        <v>7.225701119750738e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>8.784043893683702e-05</v>
+        <v>0.0099048912525177</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0005449528689496219</v>
+        <v>0.003590033389627934</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.0001049170168698765</v>
+        <v>0.001639897469431162</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.000500467314850539</v>
+        <v>0.002028657123446465</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.882129956560675e-05</v>
+        <v>0.01005290262401104</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.0006314713391475379</v>
+        <v>0.005812232382595539</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0006447888445109129</v>
+        <v>0.001005261554382741</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.0009975482244044542</v>
+        <v>0.006721798796206713</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.000649057503324002</v>
+        <v>0.003025031415745616</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.0001772620889823884</v>
+        <v>0.0006897243438288569</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.0006303316913545132</v>
+        <v>0.00123816542327404</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.0001662400609347969</v>
+        <v>0.007336150389164686</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.0001657085376791656</v>
+        <v>0.0008133244118653238</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.0001425610389560461</v>
+        <v>0.001077879220247269</v>
       </c>
       <c r="DD4" t="n">
-        <v>6.444922473747283e-05</v>
+        <v>0.001807574881240726</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0003761695697903633</v>
+        <v>0.001120034838095307</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.001956486143171787</v>
+        <v>0.004599334672093391</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.0005704826908186078</v>
+        <v>0.005346352234482765</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.0001008886902127415</v>
+        <v>0.005532151088118553</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.0003773376811295748</v>
+        <v>0.02240375243127346</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3.590875712689012e-05</v>
+        <v>0.009221388958394527</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0002307243994437158</v>
+        <v>0.001318954396992922</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0001504977699369192</v>
+        <v>0.0006770773325115442</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.0003206002584192902</v>
+        <v>0.00745824072510004</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0001416363811586052</v>
+        <v>0.0008437016513198614</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.001087208394892514</v>
+        <v>0.001058786874637008</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0003038241702597588</v>
+        <v>0.001658661756664515</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.0002170311490772292</v>
+        <v>0.001766190747730434</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0001273998350370675</v>
+        <v>0.0007334515685215592</v>
       </c>
       <c r="DS4" t="n">
-        <v>2.425886123091914e-05</v>
+        <v>0.006357345730066299</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.0002918062382377684</v>
+        <v>0.003760706866160035</v>
       </c>
       <c r="DU4" t="n">
-        <v>2.889359166147187e-06</v>
+        <v>0.007235702592879534</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.0004189607279840857</v>
+        <v>0.003977903630584478</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.0002366439875913784</v>
+        <v>0.001633896376006305</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0002006254799198359</v>
+        <v>0.001348861260339618</v>
       </c>
       <c r="DY4" t="n">
-        <v>1.410017648595385e-05</v>
+        <v>0.008048247545957565</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.22654892038554e-05</v>
+        <v>8.590953075326979e-05</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0009024732862599194</v>
+        <v>0.001669641816988587</v>
       </c>
       <c r="EB4" t="n">
-        <v>3.23778876918368e-05</v>
+        <v>0.001902526244521141</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.0001161882391897961</v>
+        <v>0.0006108264205977321</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0006034229299984872</v>
+        <v>0.008488466963171959</v>
       </c>
       <c r="EE4" t="n">
-        <v>3.061491952394135e-05</v>
+        <v>0.001610299339517951</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.001233534188941121</v>
+        <v>0.0009767094161361456</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.001051867147907615</v>
+        <v>0.008728770539164543</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0005396854248829186</v>
+        <v>0.003455889644101262</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.0003718932275660336</v>
+        <v>0.002975743496790528</v>
       </c>
       <c r="EJ4" t="n">
-        <v>9.722695540403947e-05</v>
+        <v>0.003333022585138679</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.000617224897723645</v>
+        <v>0.00396735081449151</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.0002442762488499284</v>
+        <v>0.0004972415044903755</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.0004306217888370156</v>
+        <v>0.001369893783703446</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.0003302851400803775</v>
+        <v>0.0002445206046104431</v>
       </c>
       <c r="EO4" t="n">
-        <v>3.205272878403775e-05</v>
+        <v>0.002856676001101732</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.001279797055758536</v>
+        <v>0.006661972962319851</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0001569606829434633</v>
+        <v>0.008117130026221275</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.0004528806312009692</v>
+        <v>0.004895655438303947</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0001074908723239787</v>
+        <v>0.00724893668666482</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.0005833868635818362</v>
+        <v>0.004936326760798693</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.0002305559464730322</v>
+        <v>0.0008949234616011381</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.0003563978243619204</v>
+        <v>0.007191536016762257</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.0004729529609903693</v>
+        <v>0.0004250943893566728</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.0006103194318711758</v>
+        <v>0.001184721826575696</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0008832435123622417</v>
+        <v>0.005598053801804781</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.0006652270676568151</v>
+        <v>0.004290910437703133</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.000201190312509425</v>
+        <v>0.002337150741368532</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0003899309085682034</v>
+        <v>0.003520624246448278</v>
       </c>
       <c r="FC4" t="n">
-        <v>2.696804040169809e-05</v>
+        <v>0.006957489531487226</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.000126234968774952</v>
+        <v>6.724891863996163e-05</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.0002561639121267945</v>
+        <v>0.002974599599838257</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.0001108318610931747</v>
+        <v>0.001253393245860934</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0006979971658438444</v>
+        <v>0.0003052386164199561</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0003754064673557878</v>
+        <v>0.001481674029491842</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.000425672042183578</v>
+        <v>0.008997155353426933</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0005909481551498175</v>
+        <v>0.003158151404932141</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0002082489663735032</v>
+        <v>0.003392732003703713</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.0002465508587192744</v>
+        <v>0.003312076907604933</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.0006223086966201663</v>
+        <v>0.006420857273042202</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0009468478383496404</v>
+        <v>0.002122186124324799</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.0003521705220919102</v>
+        <v>0.002240837784484029</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.0003197891928721219</v>
+        <v>0.006900821346789598</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.001635620719753206</v>
+        <v>0.0186060257256031</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.0001453126897104084</v>
+        <v>0.007456565741449594</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0005849958979524672</v>
+        <v>0.002906216774135828</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0003024262259714305</v>
+        <v>0.01034817285835743</v>
       </c>
       <c r="FU4" t="n">
-        <v>1.403492024110164e-05</v>
+        <v>0.007902496494352818</v>
       </c>
       <c r="FV4" t="n">
-        <v>8.670654642628506e-05</v>
+        <v>0.0006716404459439218</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.0006340707768686116</v>
+        <v>0.004067810252308846</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0002537629916332662</v>
+        <v>0.006788077764213085</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0007243903819471598</v>
+        <v>0.002921759383752942</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0002216862631030381</v>
+        <v>0.008426560088992119</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0001309880753979087</v>
+        <v>0.002793459920212626</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0001630641490919515</v>
+        <v>0.003830451285466552</v>
       </c>
       <c r="GC4" t="n">
-        <v>8.069788600550964e-05</v>
+        <v>0.003360183676704764</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.0005757580511271954</v>
+        <v>0.001295091700740159</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0004135047493036836</v>
+        <v>0.002892371267080307</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0007185576250776649</v>
+        <v>0.003476674202829599</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0002372361777815968</v>
+        <v>0.003221580758690834</v>
       </c>
     </row>
     <row r="5">
@@ -3280,2278 +3280,2278 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.05675246939063072</v>
+        <v>0.05682545155286789</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03501928597688675</v>
+        <v>0.1778480708599091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05664217099547386</v>
+        <v>0.02882407605648041</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02118813246488571</v>
+        <v>0.07243053615093231</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0315696969628334</v>
+        <v>0.1388911306858063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01348490826785564</v>
+        <v>0.2831272780895233</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01398021355271339</v>
+        <v>0.01707099750638008</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003225978463888168</v>
+        <v>0.1256091892719269</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006204712670296431</v>
+        <v>0.02301723882555962</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05137312784790993</v>
+        <v>0.04071518033742905</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01888581365346909</v>
+        <v>0.157675638794899</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05122498795390129</v>
+        <v>0.01566549763083458</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01881358213722706</v>
+        <v>0.04450316354632378</v>
       </c>
       <c r="N6" t="n">
-        <v>0.008076798170804977</v>
+        <v>0.01909970119595528</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002760606352239847</v>
+        <v>0.1925966292619705</v>
       </c>
       <c r="P6" t="n">
-        <v>0.004947972018271685</v>
+        <v>0.005726564675569534</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0121126901358366</v>
+        <v>0.1244897171854973</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01270514540374279</v>
+        <v>0.01785809360444546</v>
       </c>
       <c r="S6" t="n">
-        <v>0.006743752397596836</v>
+        <v>0.001795703545212746</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01354214921593666</v>
+        <v>0.01275112479925156</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004849687684327364</v>
+        <v>0.03684240207076073</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001026229932904243</v>
+        <v>0.05456916987895966</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004015334881842136</v>
+        <v>0.05847299844026566</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001421384047716856</v>
+        <v>0.0293225534260273</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0001505431719124317</v>
+        <v>0.02774848975241184</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.004812555387616158</v>
+        <v>0.02060374990105629</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.004127321299165487</v>
+        <v>0.01525207795202732</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.002786627039313316</v>
+        <v>0.009538559243083</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01686079241335392</v>
+        <v>0.01228675618767738</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.006031798664480448</v>
+        <v>0.02206330001354218</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02019874751567841</v>
+        <v>0.01054434478282928</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01135706435889006</v>
+        <v>0.02415727078914642</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.005213516298681498</v>
+        <v>0.04265116900205612</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.009350434876978397</v>
+        <v>0.06491079926490784</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.01129347831010818</v>
+        <v>0.02428130619227886</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.01625712402164936</v>
+        <v>0.01154171209782362</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.01085808873176575</v>
+        <v>0.001988187897950411</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.008705850690603256</v>
+        <v>0.02578816562891006</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.008422133512794971</v>
+        <v>0.01680545322597027</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.01461284607648849</v>
+        <v>0.02088894136250019</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0007288646884262562</v>
+        <v>0.02549132332205772</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.007615448441356421</v>
+        <v>0.05350480973720551</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.953223884105682e-05</v>
+        <v>0.009018277749419212</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.01515246834605932</v>
+        <v>0.03945964202284813</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.001155751757323742</v>
+        <v>0.01537918113172054</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.03083342500030994</v>
+        <v>0.03934388980269432</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.006278774235397577</v>
+        <v>0.07111622393131256</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.02853857539594173</v>
+        <v>0.005564356222748756</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.004400187637656927</v>
+        <v>0.007671937812119722</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.004705248400568962</v>
+        <v>0.1257829517126083</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.01575962267816067</v>
+        <v>0.18775774538517</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.02127473428845406</v>
+        <v>0.02473589032888412</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.001190124545246363</v>
+        <v>0.04729054123163223</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.002245643176138401</v>
+        <v>0.03630604967474937</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.009450432844460011</v>
+        <v>0.0006809118203818798</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.01887798309326172</v>
+        <v>0.05558447167277336</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.01348205469548702</v>
+        <v>0.01420206762850285</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.0117340125143528</v>
+        <v>0.06256277114152908</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.02934764511883259</v>
+        <v>0.06577668339014053</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.007114487700164318</v>
+        <v>0.03416493535041809</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.02159013412892818</v>
+        <v>0.01778142899274826</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.01527550164610147</v>
+        <v>0.01312025636434555</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.000358300720108673</v>
+        <v>0.004913298413157463</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.01085335481911898</v>
+        <v>0.01623384095728397</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.000587877759244293</v>
+        <v>0.0488894097507</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.006005230359733105</v>
+        <v>0.02796261385083199</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.001882442040368915</v>
+        <v>0.00309328967705369</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.008679251186549664</v>
+        <v>0.02100195549428463</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.005575908347964287</v>
+        <v>0.00157866720110178</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.00585637241601944</v>
+        <v>0.03878005966544151</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.01994891650974751</v>
+        <v>0.0468849316239357</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.001675330568104982</v>
+        <v>0.03022138401865959</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.02576019987463951</v>
+        <v>0.02647718600928783</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.003135998733341694</v>
+        <v>0.06050632148981094</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.02031144499778748</v>
+        <v>0.01233845204114914</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.01238794252276421</v>
+        <v>0.01671218313276768</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.01340748276561499</v>
+        <v>0.05039926618337631</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.006276000756770372</v>
+        <v>0.06076430901885033</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.007869550958275795</v>
+        <v>0.006646266207098961</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.00740711810067296</v>
+        <v>0.04142624884843826</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.004594060592353344</v>
+        <v>0.01988357119262218</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.01375677902251482</v>
+        <v>0.0005382769741117954</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.009171679615974426</v>
+        <v>0.02221249043941498</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.007795480545610189</v>
+        <v>0.006547905039042234</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.004906101617962122</v>
+        <v>0.01732109859585762</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.002518330235034227</v>
+        <v>0.01712638512253761</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.005789864342659712</v>
+        <v>0.04593328759074211</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.0008418853394687176</v>
+        <v>0.003648964688181877</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.0008938768296502531</v>
+        <v>0.01606986485421658</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.0008295176667161286</v>
+        <v>0.006539742927998304</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.01168644055724144</v>
+        <v>0.01260071527212858</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.0101640373468399</v>
+        <v>0.03071312420070171</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.001406964845955372</v>
+        <v>0.003001312026754022</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.0008897772058844566</v>
+        <v>0.02265973575413227</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.01640844531357288</v>
+        <v>0.08591347187757492</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.0006559242028743029</v>
+        <v>0.02294287830591202</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.01320471614599228</v>
+        <v>0.02843592502176762</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.01487374026328325</v>
+        <v>0.02732448279857635</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.0005323624354787171</v>
+        <v>0.0468871146440506</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.01440561097115278</v>
+        <v>0.003844337072223425</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.008988236077129841</v>
+        <v>0.01592602021992207</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.008399096317589283</v>
+        <v>0.008421158418059349</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.001338177942670882</v>
+        <v>0.02033368498086929</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.009741855785250664</v>
+        <v>0.02724544145166874</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.005354151595383883</v>
+        <v>0.0558699443936348</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.0003217461053282022</v>
+        <v>0.003227668348699808</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.001425228198058903</v>
+        <v>0.03273732587695122</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.00198317295871675</v>
+        <v>0.009029346518218517</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.00975215807557106</v>
+        <v>0.02252879925072193</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.03147462382912636</v>
+        <v>0.1041633114218712</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.005299286916851997</v>
+        <v>0.002332448493689299</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.02297224663197994</v>
+        <v>0.0553237721323967</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.003636875888332725</v>
+        <v>0.1381904631853104</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.002875846112146974</v>
+        <v>0.07414639741182327</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.004281077533960342</v>
+        <v>0.0347965843975544</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.00422952976077795</v>
+        <v>0.07795548439025879</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.005146102048456669</v>
+        <v>0.08689741790294647</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.008722463622689247</v>
+        <v>0.01709713600575924</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.007640525698661804</v>
+        <v>0.004397479817271233</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.001980685163289309</v>
+        <v>0.01992893405258656</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.0002515518572181463</v>
+        <v>0.04665296524763107</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.005896138492971659</v>
+        <v>0.0118165910243988</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.003395527368411422</v>
+        <v>0.008674044162034988</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.004058864898979664</v>
+        <v>0.01754248514771461</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.0008283282513730228</v>
+        <v>0.05222496390342712</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.004997259937226772</v>
+        <v>0.00152389844879508</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.001790902810171247</v>
+        <v>0.00925891287624836</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.0007799849845468998</v>
+        <v>0.008406385779380798</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.00333578628487885</v>
+        <v>0.01691947877407074</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.008574214763939381</v>
+        <v>0.008496341295540333</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.01350381039083004</v>
+        <v>0.06225697696208954</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.002291697077453136</v>
+        <v>0.02434246242046356</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.001066023018211126</v>
+        <v>0.003728784853592515</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.01546565163880587</v>
+        <v>0.03418480232357979</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.003653255989775062</v>
+        <v>0.04730610921978951</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.01361230574548244</v>
+        <v>0.02348101884126663</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.003779145888984203</v>
+        <v>0.01237337663769722</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.01041095424443483</v>
+        <v>0.01227154955267906</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.007564479485154152</v>
+        <v>0.004872404038906097</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.003133292077109218</v>
+        <v>0.03524854406714439</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.01389058586210012</v>
+        <v>0.05464235320687294</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.006426756270229816</v>
+        <v>0.006044489797204733</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.00513971084728837</v>
+        <v>0.01762466877698898</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.0006331447511911392</v>
+        <v>0.008061209693551064</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.001879982533864677</v>
+        <v>0.001410686643794179</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.0108830202370882</v>
+        <v>0.002186570316553116</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.00182933290489018</v>
+        <v>0.02149504795670509</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.001607098150998354</v>
+        <v>0.009077954106032848</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.0003996641607955098</v>
+        <v>0.02191021665930748</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.005782102234661579</v>
+        <v>0.03294096887111664</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.01005743071436882</v>
+        <v>0.006756436079740524</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.007931953296065331</v>
+        <v>0.06415755301713943</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.01264321990311146</v>
+        <v>0.009455417282879353</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.01528015080839396</v>
+        <v>0.002300839172676206</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.004998713731765747</v>
+        <v>0.01533821318298578</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.007697395980358124</v>
+        <v>0.01647528260946274</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.0007584815612062812</v>
+        <v>0.01956096850335598</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.007195066194981337</v>
+        <v>0.02531740441918373</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.00517307547852397</v>
+        <v>0.05133505910634995</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.00184328097384423</v>
+        <v>0.007101840805262327</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.003246346022933722</v>
+        <v>0.03794191032648087</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.003774060867726803</v>
+        <v>0.001663489267230034</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.01425463519990444</v>
+        <v>0.00418736832216382</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.00405162712559104</v>
+        <v>0.03303371369838715</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.01352931559085846</v>
+        <v>0.03248609974980354</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.01266570203006268</v>
+        <v>0.01462409645318985</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.006207661237567663</v>
+        <v>0.01250561699271202</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.01624185591936111</v>
+        <v>0.03427149727940559</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.002132126828655601</v>
+        <v>0.006289049983024597</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.007121412083506584</v>
+        <v>0.01138883456587791</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.001198648940771818</v>
+        <v>0.0202169194817543</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.003975571133196354</v>
+        <v>0.005741136614233255</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.02935417369008064</v>
+        <v>0.0005496252560988069</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.009107997640967369</v>
+        <v>0.01920489221811295</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.0415036715567112</v>
+        <v>0.02491142973303795</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.009180066175758839</v>
+        <v>0.09443974494934082</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.007727197837084532</v>
+        <v>0.05811580270528793</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.01094353571534157</v>
+        <v>0.02581291645765305</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.01216012332588434</v>
+        <v>0.04642009735107422</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.0006884377798996866</v>
+        <v>0.01583456806838512</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.0008533175569027662</v>
+        <v>0.01190048269927502</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.01112524885684252</v>
+        <v>0.01130483113229275</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.01100325491279364</v>
+        <v>0.01539077796041965</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.01047529466450214</v>
+        <v>0.007468639872968197</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.02122800797224045</v>
+        <v>0.1376537084579468</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.0007712060469202697</v>
+        <v>0.0239420048892498</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.0007767351344227791</v>
+        <v>0.02829000726342201</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.006597211118787527</v>
+        <v>0.03428639844059944</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.000985807622782886</v>
+        <v>0.0009901318699121475</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.005152606870979071</v>
+        <v>1.209691617987119e-07</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0008037600782699883</v>
+        <v>0.0001789727830328047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02807845920324326</v>
+        <v>1.604307908564806e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003717740532010794</v>
+        <v>6.431688962038606e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00657690828666091</v>
+        <v>7.820432983862702e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007129768375307322</v>
+        <v>0.0001014630397548899</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003520040772855282</v>
+        <v>1.517002601758577e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008703725412487984</v>
+        <v>3.376680979272351e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01658994890749454</v>
+        <v>5.763768058386631e-07</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005751796998083591</v>
+        <v>3.719802771229297e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002694172784686089</v>
+        <v>0.0001480976497987285</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02529755607247353</v>
+        <v>5.919626346440054e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001792180119082332</v>
+        <v>7.273259689100087e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0007321871817111969</v>
+        <v>3.361355993547477e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009811957366764545</v>
+        <v>9.886125917546451e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>3.199014463461936e-05</v>
+        <v>3.045614903385285e-06</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.007144995499402285</v>
+        <v>1.786333086783998e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01715213246643543</v>
+        <v>3.301408924016869e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0009351857006549835</v>
+        <v>2.412675939922337e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>0.006299071945250034</v>
+        <v>2.10292619158281e-05</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0008883158443495631</v>
+        <v>7.993124199856538e-06</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002637648023664951</v>
+        <v>2.621561179694254e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001330555649474263</v>
+        <v>1.130786495195935e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001031077932566404</v>
+        <v>9.047964340425096e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0009123113704845309</v>
+        <v>7.141358764783945e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.001311004743911326</v>
+        <v>2.057555684586987e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001859762007370591</v>
+        <v>5.557012627832592e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.001067707547917962</v>
+        <v>1.73752305272501e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.003533329349011183</v>
+        <v>2.412446337984875e-05</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.002761747688055038</v>
+        <v>8.632547178422101e-06</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.004889156669378281</v>
+        <v>1.518688713986194e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.001644838368520141</v>
+        <v>1.240142410097178e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.00311981188133359</v>
+        <v>2.307707836735062e-05</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0006866060430184007</v>
+        <v>1.017619888443733e-05</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0004812174011021852</v>
+        <v>9.073262845049612e-06</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.004814387764781713</v>
+        <v>1.614555230844417e-06</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0006056305719539523</v>
+        <v>2.073465839202981e-05</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0007082055672071874</v>
+        <v>1.485873963247286e-05</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.006466043181717396</v>
+        <v>4.793605967279291e-06</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.001703036832623184</v>
+        <v>2.186932033509947e-05</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.001506590284407139</v>
+        <v>3.637955160229467e-06</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.13311577681452e-05</v>
+        <v>3.244321487727575e-05</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0005408197175711393</v>
+        <v>1.683066693658475e-05</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.00250208331272006</v>
+        <v>6.698216566292103e-06</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0007475872989743948</v>
+        <v>1.764608714438509e-05</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.002237750682979822</v>
+        <v>1.906479883473366e-05</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0004411558038555086</v>
+        <v>0.0001123256806749851</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.01322853192687035</v>
+        <v>2.01658235710056e-06</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.00120378821156919</v>
+        <v>9.144869181909598e-06</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.002143168123438954</v>
+        <v>3.4481861803215e-05</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.001103231217712164</v>
+        <v>6.540706817759201e-05</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.002721804892644286</v>
+        <v>3.529824653014657e-06</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.002749263774603605</v>
+        <v>2.804062023642473e-05</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.008190039545297623</v>
+        <v>9.167072676063981e-06</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0006248740246519446</v>
+        <v>5.594937647401821e-06</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.002260609064251184</v>
+        <v>4.089586218469776e-05</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.005432082340121269</v>
+        <v>4.358114892966114e-05</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0007886529201641679</v>
+        <v>2.214086271123961e-05</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.007744867820292711</v>
+        <v>5.639584560412914e-05</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.005548834800720215</v>
+        <v>3.664454561658204e-05</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0007860749028623104</v>
+        <v>1.901174982776865e-05</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.003932782914489508</v>
+        <v>3.642940282588825e-05</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.00282144732773304</v>
+        <v>4.543733666650951e-06</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.001180580933578312</v>
+        <v>2.546879386500223e-06</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.003068274818360806</v>
+        <v>2.961016980407294e-05</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.003088945988565683</v>
+        <v>2.290582415298559e-05</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0002691412810236216</v>
+        <v>2.929771653725766e-05</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.006101191975176334</v>
+        <v>2.261517920487677e-06</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.002864934504032135</v>
+        <v>4.055507815792225e-06</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.001889014034532011</v>
+        <v>1.413334939570632e-05</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.002716953866183758</v>
+        <v>1.4602368537453e-05</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.002129099098965526</v>
+        <v>8.709856956556905e-06</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.003908074460923672</v>
+        <v>1.324301229033154e-05</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.002572728786617517</v>
+        <v>6.14357486483641e-05</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.008543478325009346</v>
+        <v>2.635896089486778e-05</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0009952400578185916</v>
+        <v>8.695769793121144e-07</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.004780836869031191</v>
+        <v>1.463350236008409e-05</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.003687910502776504</v>
+        <v>2.229078381787986e-05</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.001604981604032218</v>
+        <v>4.826446001970908e-06</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.001328259473666549</v>
+        <v>1.49874667840777e-05</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.005389971192926168</v>
+        <v>9.349677384307142e-06</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.001058515510521829</v>
+        <v>3.383256171218818e-06</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0004314159159548581</v>
+        <v>3.070324237341993e-05</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.004776740446686745</v>
+        <v>1.695028731774073e-05</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0002574075188022107</v>
+        <v>9.619667252991349e-06</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0007091172738000751</v>
+        <v>1.461676492908737e-05</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.002163856290280819</v>
+        <v>1.069460358849028e-05</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0003677811473608017</v>
+        <v>1.114530277845915e-05</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.002106838393956423</v>
+        <v>6.558315362781286e-06</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.00305119575932622</v>
+        <v>5.370329290599329e-06</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.001498152385465801</v>
+        <v>3.818198456428945e-05</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0003675746265798807</v>
+        <v>2.631874849612359e-05</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.002752975793555379</v>
+        <v>1.019790147438471e-06</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.003096358384937048</v>
+        <v>2.798924106173217e-05</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.002038548234850168</v>
+        <v>5.961157057754463e-06</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0003799361875280738</v>
+        <v>1.082300605048658e-05</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.0006382330902852118</v>
+        <v>1.706709736026824e-05</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0002772553125396371</v>
+        <v>2.044155553448945e-05</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0005180675070732832</v>
+        <v>1.324942059000023e-05</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.001039000460878015</v>
+        <v>3.302275899841334e-06</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.001225267653353512</v>
+        <v>2.649153248057701e-05</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.004695992916822433</v>
+        <v>2.066791603283491e-05</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0006260378286242485</v>
+        <v>1.625964068807662e-05</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.001246738014742732</v>
+        <v>1.563420846650843e-05</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.002907466609030962</v>
+        <v>1.388653436151799e-05</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.0008501315023750067</v>
+        <v>8.124496162054129e-06</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.002010218100622296</v>
+        <v>1.15412503873813e-05</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.00223525264300406</v>
+        <v>5.268547738523921e-06</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.003187941154465079</v>
+        <v>7.149291377572808e-06</v>
       </c>
       <c r="DF7" t="n">
-        <v>6.946909707039595e-06</v>
+        <v>2.834182305377908e-05</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.006317304912954569</v>
+        <v>2.231508915429004e-05</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.00517013156786561</v>
+        <v>3.73663569916971e-05</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.001559994649142027</v>
+        <v>4.482151780393906e-06</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.009056208655238152</v>
+        <v>1.092112870537676e-05</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.003408693242818117</v>
+        <v>2.171526466554496e-05</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0004585308488458395</v>
+        <v>1.985400376725011e-05</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0005154405953362584</v>
+        <v>1.141795291914605e-05</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0007741647423245013</v>
+        <v>3.346838639117777e-06</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0005725595983676612</v>
+        <v>8.129723028105218e-06</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0009074278641492128</v>
+        <v>1.038955633703154e-05</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0006715925992466509</v>
+        <v>1.036633511830587e-05</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.001589774619787931</v>
+        <v>1.922913543239702e-05</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0007308422937057912</v>
+        <v>8.518064532836434e-06</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.002465583849698305</v>
+        <v>6.352576747303829e-06</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.005367563106119633</v>
+        <v>8.447467735095415e-06</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0002716300077736378</v>
+        <v>1.263328886125237e-05</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.003477584570646286</v>
+        <v>4.279700988263357e-06</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.00199047289788723</v>
+        <v>1.789049201761372e-05</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0003669490688480437</v>
+        <v>1.14823078547488e-05</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0008684328640811145</v>
+        <v>5.541766768146772e-06</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0009201562497764826</v>
+        <v>4.562990397971589e-06</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.001468136557377875</v>
+        <v>1.06262323242845e-05</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.000533328449819237</v>
+        <v>3.170127911289455e-06</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.004139234311878681</v>
+        <v>2.004503130592639e-06</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.002945645712316036</v>
+        <v>4.87139004690107e-08</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0002701088378671557</v>
+        <v>6.821016995672835e-06</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.004884684924036264</v>
+        <v>2.176917587348726e-05</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.00485141621902585</v>
+        <v>1.850696935434826e-05</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.001916144625283778</v>
+        <v>3.394000941625563e-06</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.002577440813183784</v>
+        <v>7.732670383120421e-06</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.004154916852712631</v>
+        <v>8.849394362187013e-06</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.001191707327961922</v>
+        <v>1.676779174886178e-05</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.00130151177290827</v>
+        <v>2.14161332223739e-06</v>
       </c>
       <c r="EN7" t="n">
-        <v>7.039326010271907e-05</v>
+        <v>4.794912911165738e-07</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.001690692384727299</v>
+        <v>6.803436008340213e-06</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.001508056302554905</v>
+        <v>2.257309097331017e-05</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0005640379968099296</v>
+        <v>2.10342896025395e-05</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.001804795116186142</v>
+        <v>2.330474671907723e-05</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.001179673941805959</v>
+        <v>8.189967047655955e-06</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.001883604330942035</v>
+        <v>6.400607048817619e-07</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.001539892400614917</v>
+        <v>8.417226126766764e-06</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.0001828992972150445</v>
+        <v>1.984262416954152e-05</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.004503944423049688</v>
+        <v>9.071918611880392e-07</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.001871539512649179</v>
+        <v>7.179393833212089e-06</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.002188873011618853</v>
+        <v>2.584430330898613e-05</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.004481473006308079</v>
+        <v>1.4092917808739e-05</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.0004074204480275512</v>
+        <v>1.290237196371891e-05</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.001109495991840959</v>
+        <v>1.627873825782444e-05</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.001254771603271365</v>
+        <v>1.121785044233548e-05</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.000479292735690251</v>
+        <v>1.152363256551325e-05</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.001141491928137839</v>
+        <v>5.943409632891417e-06</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.003378334455192089</v>
+        <v>1.081131267710589e-05</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.00139058765489608</v>
+        <v>8.224395969591569e-06</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.0006331898039206862</v>
+        <v>1.130435180130007e-06</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.008220390416681767</v>
+        <v>7.792600626999047e-06</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.001374730025418103</v>
+        <v>3.644360549515113e-05</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.001716123311780393</v>
+        <v>1.558378971822094e-05</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.001733755110763013</v>
+        <v>2.087195571220946e-05</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0001563967962283641</v>
+        <v>3.332765118102543e-06</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.003957997541874647</v>
+        <v>9.813731594476849e-06</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0003491293173283339</v>
+        <v>7.194887075456791e-06</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.003909968305379152</v>
+        <v>1.440500454918947e-06</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.005029022693634033</v>
+        <v>2.791410770441871e-05</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.004416453652083874</v>
+        <v>1.265627270186087e-05</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.001111790887080133</v>
+        <v>4.1928327846108e-05</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.003668033983558416</v>
+        <v>1.35489954118384e-05</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.002552138641476631</v>
+        <v>1.923139461723622e-05</v>
       </c>
       <c r="FV7" t="n">
-        <v>9.854574454948306e-05</v>
+        <v>8.41165820020251e-06</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.001787783578038216</v>
+        <v>8.090148639894323e-07</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.005239349324256182</v>
+        <v>1.157015140051953e-05</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.001966567244380713</v>
+        <v>3.580914926715195e-05</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0007759047439321876</v>
+        <v>7.557141088909702e-06</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.005145128816366196</v>
+        <v>1.070367397915106e-05</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.006617865059524775</v>
+        <v>5.612515906250337e-06</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.004458076320588589</v>
+        <v>2.613433707665536e-06</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.001581174205057323</v>
+        <v>1.95600550796371e-05</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.003039837814867496</v>
+        <v>6.417436816263944e-05</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.003989611752331257</v>
+        <v>4.092693416168913e-06</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.006365650799125433</v>
+        <v>8.953627911978401e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.00784921832382679</v>
+        <v>0.0001386082731187344</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001004999736323953</v>
+        <v>0.003720554290339351</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004998402204364538</v>
+        <v>0.0002309995034011081</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002117005176842213</v>
+        <v>0.001910562277771533</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001525914296507835</v>
+        <v>0.002091638743877411</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0008426300482824445</v>
+        <v>0.001418681349605322</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001221655402332544</v>
+        <v>0.0005357424379326403</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002288996241986752</v>
+        <v>6.476366252172738e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002709999913349748</v>
+        <v>0.0003152618883177638</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00705380504950881</v>
+        <v>0.000109918080852367</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000912269635591656</v>
+        <v>0.003178672399371862</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004925159737467766</v>
+        <v>0.0002937218232546002</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001346724573522806</v>
+        <v>0.0003805970191024244</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0008356411708518863</v>
+        <v>0.001271143322810531</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001138929161243141</v>
+        <v>0.000816843647044152</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002159774303436279</v>
+        <v>0.00095962273189798</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002089068293571472</v>
+        <v>0.0007132311584427953</v>
       </c>
       <c r="R8" t="n">
-        <v>0.003449271898716688</v>
+        <v>4.631874617189169e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0002557711559347808</v>
+        <v>8.482608973281458e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001500729005783796</v>
+        <v>0.0001819163735490292</v>
       </c>
       <c r="U8" t="n">
-        <v>0.000153566594235599</v>
+        <v>2.885804860852659e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>2.165091791539453e-05</v>
+        <v>0.0006039673462510109</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001459212624467909</v>
+        <v>3.253028626204468e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0005580616416409612</v>
+        <v>0.0002733087749220431</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0001508313580416143</v>
+        <v>0.0004428486863616854</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001222596853040159</v>
+        <v>0.0001901411305880174</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.044444257393479e-07</v>
+        <v>0.0005474661593325436</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0001612276391824707</v>
+        <v>9.979400783777237e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0002014195779338479</v>
+        <v>3.224543615942821e-05</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0004210430197417736</v>
+        <v>0.0004701527068391442</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0008685732027515769</v>
+        <v>0.0007679859991185367</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0001969366567209363</v>
+        <v>0.0003877205890603364</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.713415056467056e-05</v>
+        <v>0.0003795515222009271</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0008722664788365364</v>
+        <v>3.288471634732559e-05</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.001040960429236293</v>
+        <v>0.0006001172005198896</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0009183505899272859</v>
+        <v>0.000404618593165651</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.00162301049567759</v>
+        <v>0.0001821512851165608</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.001779483514837921</v>
+        <v>0.0006157727912068367</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0007020460907369852</v>
+        <v>0.000238530890783295</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.00128444004803896</v>
+        <v>9.996353037422523e-05</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.001063999370671809</v>
+        <v>3.672441744129173e-05</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0004094651958439499</v>
+        <v>0.0004340341547504067</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4.040883868583478e-05</v>
+        <v>0.0001194404612760991</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0002480515686329454</v>
+        <v>0.000342138868290931</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0004159983654972166</v>
+        <v>0.0003383731527719647</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.003711928613483906</v>
+        <v>0.0005038776434957981</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.001603170996531844</v>
+        <v>0.001884965924546123</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.003334259614348412</v>
+        <v>2.97952356049791e-05</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0002756601897999644</v>
+        <v>0.001807984081096947</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0003297418588772416</v>
+        <v>0.001456532976590097</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0004603750421665609</v>
+        <v>0.0008184247999452055</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.00117094162851572</v>
+        <v>0.0006901276065036654</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.002876113401725888</v>
+        <v>0.0002868784358724952</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0005165908951312304</v>
+        <v>0.0007321796729229391</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.001682985341176391</v>
+        <v>0.0004185512661933899</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0004270111676305532</v>
+        <v>0.0005756508908234537</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.001256729243323207</v>
+        <v>0.0005289760301820934</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0002143785677617416</v>
+        <v>6.259151268750429e-05</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0009100900497287512</v>
+        <v>0.001166684320196509</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0008275688160210848</v>
+        <v>0.000474061060231179</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0009496684651821852</v>
+        <v>8.709060784894973e-05</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.001799666089937091</v>
+        <v>0.000787838245742023</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.001068451092578471</v>
+        <v>0.0003273831389378756</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0008555726381018758</v>
+        <v>0.0001437092723790556</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0002162891760235652</v>
+        <v>0.0003787893801927567</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0009926534257829189</v>
+        <v>0.0002608980285003781</v>
       </c>
       <c r="BO8" t="n">
-        <v>1.572255132487044e-05</v>
+        <v>6.808697071392089e-05</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.001681192894466221</v>
+        <v>0.0009475864935666323</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.001006448525004089</v>
+        <v>0.0002088538749376312</v>
       </c>
       <c r="BR8" t="n">
-        <v>4.057152546010911e-05</v>
+        <v>5.747249451815151e-05</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0006714811315760016</v>
+        <v>0.0005717500462196767</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0001139396335929632</v>
+        <v>6.271926395129412e-05</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.003073526779189706</v>
+        <v>0.0004669974441640079</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0004005711525678635</v>
+        <v>0.001307661063037813</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.001315019791945815</v>
+        <v>7.043092045933008e-05</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0009216683683916926</v>
+        <v>0.0006796065717935562</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.001356085645966232</v>
+        <v>0.0006320350803434849</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.0008241732139140368</v>
+        <v>0.000173745458596386</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0001538919459562749</v>
+        <v>0.0003769708564504981</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.00194611051119864</v>
+        <v>9.052166569745168e-05</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0004101104859728366</v>
+        <v>0.0005026119761168957</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.001622361945919693</v>
+        <v>9.601779311196879e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.001271713292226195</v>
+        <v>0.0003913495747838169</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.0009416653774678707</v>
+        <v>0.0001933717867359519</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0004693963564932346</v>
+        <v>0.0003910056839231402</v>
       </c>
       <c r="CH8" t="n">
-        <v>2.294196747243404e-06</v>
+        <v>4.445565718924627e-05</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.0003085556381847709</v>
+        <v>0.0002261541085317731</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0002643584157340229</v>
+        <v>5.47540548723191e-06</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0001561215613037348</v>
+        <v>0.0001196681478177197</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0002084552543237805</v>
+        <v>0.000410142878536135</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.0007376783760264516</v>
+        <v>3.042619391635526e-05</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.0002894284261856228</v>
+        <v>0.0005067542078904808</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0005379703361541033</v>
+        <v>0.0001670529745751992</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0005941968411207199</v>
+        <v>0.0007833045674487948</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.001830346416682005</v>
+        <v>7.724772149231285e-05</v>
       </c>
       <c r="CR8" t="n">
-        <v>7.965773693285882e-05</v>
+        <v>0.000823642301838845</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0008851367165334523</v>
+        <v>0.001030551851727068</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.001179579296149313</v>
+        <v>0.0004742545424960554</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.0008979665581136942</v>
+        <v>0.0001690234494162723</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.001593601540662348</v>
+        <v>7.321206794586033e-06</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.001026509911753237</v>
+        <v>0.0004843796486966312</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.001078692963346839</v>
+        <v>0.0002490436600055546</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.0002756377507466823</v>
+        <v>0.0005489119794219732</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.0009264129912480712</v>
+        <v>0.0001476260367780924</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0003549388493411243</v>
+        <v>0.0003798906109295785</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0001326726342085749</v>
+        <v>0.0001232583599630743</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.0001672469079494476</v>
+        <v>0.0001874707377282903</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.0001043591619236395</v>
+        <v>0.0003605942474678159</v>
       </c>
       <c r="DE8" t="n">
-        <v>2.154567482648417e-05</v>
+        <v>0.000144805817399174</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.003150377655401826</v>
+        <v>0.000696835748385638</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.000968511332757771</v>
+        <v>0.0004336155543569475</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.000603678054176271</v>
+        <v>0.002453195163980126</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0009281663224101067</v>
+        <v>0.001740113599225879</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.001286170561797917</v>
+        <v>0.0001377367880195379</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0007384451455436647</v>
+        <v>0.0009296572534367442</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0002223285846412182</v>
+        <v>0.001216516364365816</v>
       </c>
       <c r="DM8" t="n">
-        <v>6.80680968798697e-05</v>
+        <v>0.0002158032439183444</v>
       </c>
       <c r="DN8" t="n">
-        <v>9.112193947657943e-05</v>
+        <v>0.000399493204895407</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.001881883945316076</v>
+        <v>0.0003582770295906812</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0001918687194120139</v>
+        <v>0.0008899194654077291</v>
       </c>
       <c r="DQ8" t="n">
-        <v>6.585386290680617e-05</v>
+        <v>0.0002176416455768049</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.000448800390586257</v>
+        <v>0.0002054366923402995</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.0007994839688763022</v>
+        <v>0.0002903505810536444</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0005872760666534305</v>
+        <v>0.0001815177965909243</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0002910281473305076</v>
+        <v>0.0003016275004483759</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0004001469642389566</v>
+        <v>0.0004862102796323597</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0004617031081579626</v>
+        <v>0.0002096005191560835</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0004790999228134751</v>
+        <v>5.055231304140761e-05</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.0002510002814233303</v>
+        <v>0.0007111962768249214</v>
       </c>
       <c r="DZ8" t="n">
-        <v>2.283915819134563e-05</v>
+        <v>0.0003930603561457247</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.001480671111494303</v>
+        <v>2.887215850932989e-05</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.0001879199116956443</v>
+        <v>0.0003014734829775989</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0002161604061257094</v>
+        <v>0.0001453524164389819</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.0005801640800200403</v>
+        <v>0.0003838241682387888</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.0002480618713889271</v>
+        <v>0.0002965763560496271</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.00218133581802249</v>
+        <v>0.0003786436282098293</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.001233062124811113</v>
+        <v>0.0003025117330253124</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0007689178455621004</v>
+        <v>0.0004120517696719617</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0004271955112926662</v>
+        <v>3.342660784255713e-05</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.000438810617197305</v>
+        <v>0.0005677255103364587</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.0009050417575053871</v>
+        <v>0.0004729558131657541</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0005439287051558495</v>
+        <v>7.856142474338412e-07</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.000993561465293169</v>
+        <v>3.004140489792917e-05</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.000388854299671948</v>
+        <v>0.0001675477833487093</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0005583983147516847</v>
+        <v>7.024961814749986e-05</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.0007570290472358465</v>
+        <v>6.339618266792968e-05</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.0005554446834139526</v>
+        <v>0.0002432503242744133</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0009010325884446502</v>
+        <v>0.0002790083235595375</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.0003297455259598792</v>
+        <v>0.0001859673939179629</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.0007087304256856441</v>
+        <v>0.0006140758050605655</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0009891076479107141</v>
+        <v>0.000254749960731715</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0009179342305287719</v>
+        <v>0.0003856272669509053</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.0006387486355379224</v>
+        <v>0.0001777495635906234</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.001623468473553658</v>
+        <v>3.200824357918464e-05</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.0008990016649477184</v>
+        <v>0.0004525848489720374</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.001102852635085583</v>
+        <v>0.0001021881762426347</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.0002836431958712637</v>
+        <v>0.0004439156327862293</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0005042640259489417</v>
+        <v>5.017410512664355e-05</v>
       </c>
       <c r="FC8" t="n">
-        <v>7.168053707573563e-05</v>
+        <v>0.0002409787412034348</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0001787651272024959</v>
+        <v>0.0001017020986182615</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.0001487076515331864</v>
+        <v>0.0001114988554036245</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.000199492133106105</v>
+        <v>0.0004430067201610655</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.001190885785035789</v>
+        <v>0.0001061541188391857</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.0003403550945222378</v>
+        <v>0.0004920618957839906</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.00120098702609539</v>
+        <v>5.060968760517426e-05</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.001576311071403325</v>
+        <v>0.0005876041250303388</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.0008531097555533051</v>
+        <v>0.0003364443255122751</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.000876834150403738</v>
+        <v>8.736518793739378e-05</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0003343599091749638</v>
+        <v>9.467679774388671e-06</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.0003181527717970312</v>
+        <v>0.00047828140668571</v>
       </c>
       <c r="FO8" t="n">
-        <v>4.58534159406554e-05</v>
+        <v>0.0001295647380175069</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0002097600372508168</v>
+        <v>0.0001132145771407522</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.002596649806946516</v>
+        <v>0.0007463008514605463</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0006171792047098279</v>
+        <v>3.508048393996432e-05</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.0009714633924886584</v>
+        <v>0.0008675287826918066</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0007329661748372018</v>
+        <v>0.000772991101257503</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.0004030012059956789</v>
+        <v>0.0002768593840301037</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.000426841143053025</v>
+        <v>0.0001991205936064944</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.0008678028243593872</v>
+        <v>0.0001147357688751072</v>
       </c>
       <c r="FX8" t="n">
-        <v>4.742277087643743e-05</v>
+        <v>4.581687971949577e-05</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0005845677223987877</v>
+        <v>0.0001935619511641562</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.0004129252629354596</v>
+        <v>5.071511623100378e-06</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.0002044469001702964</v>
+        <v>0.0002117580734193325</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.001810871995985508</v>
+        <v>0.0007534403121098876</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.0004897008184343576</v>
+        <v>0.0008082689018920064</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.0009093800326809287</v>
+        <v>7.96788590378128e-05</v>
       </c>
       <c r="GE8" t="n">
-        <v>2.762963413260877e-05</v>
+        <v>0.001118556247092783</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.0004195854417048395</v>
+        <v>0.000189085621968843</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0002434759517200291</v>
+        <v>5.462991612148471e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.008946343325078487</v>
+        <v>0.01861057803034782</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002329918323084712</v>
+        <v>0.2371256947517395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008336184546351433</v>
+        <v>0.006445686332881451</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001610021572560072</v>
+        <v>0.1187348589301109</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003249197732657194</v>
+        <v>0.0323340892791748</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001526090898551047</v>
+        <v>0.203238770365715</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001259404933080077</v>
+        <v>0.001469207927584648</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001448026450816542</v>
+        <v>0.08297643065452576</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001893412787467241</v>
+        <v>0.01685802266001701</v>
       </c>
       <c r="J9" t="n">
-        <v>0.008609429001808167</v>
+        <v>0.04856201261281967</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001372694387100637</v>
+        <v>0.2230824679136276</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009552678093314171</v>
+        <v>0.004515244159847498</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0001865220547188073</v>
+        <v>0.08597143739461899</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0004555365303531289</v>
+        <v>0.003100891131907701</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002245189156383276</v>
+        <v>0.1893228590488434</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002361797261983156</v>
+        <v>0.01312901824712753</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.000254022452281788</v>
+        <v>0.03677046671509743</v>
       </c>
       <c r="R9" t="n">
-        <v>0.002658072393387556</v>
+        <v>0.005585072096437216</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0003008236235473305</v>
+        <v>0.01078718341886997</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001175667741335928</v>
+        <v>0.01615801453590393</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0006953474367037416</v>
+        <v>0.02153419330716133</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0003985023067798465</v>
+        <v>0.03197560459375381</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0006355381337925792</v>
+        <v>0.0583316832780838</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001235380652360618</v>
+        <v>0.0186696108430624</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0004593519261106849</v>
+        <v>0.01893303729593754</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.001193147618323565</v>
+        <v>0.05739665031433105</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0003520772443152964</v>
+        <v>0.03486910462379456</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.586643677204847e-05</v>
+        <v>0.001438789069652557</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0002515973756089807</v>
+        <v>0.0133759044110775</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0004119515942875296</v>
+        <v>0.009325931780040264</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.001468090573325753</v>
+        <v>0.009861024096608162</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0003025334444828331</v>
+        <v>0.01389772724360228</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0005678250454366207</v>
+        <v>0.0143308974802494</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.000395022623706609</v>
+        <v>0.01284622400999069</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.002250173129141331</v>
+        <v>0.008509773761034012</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.001145925838500261</v>
+        <v>0.0130384424701333</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.002015685196965933</v>
+        <v>0.02094356715679169</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.001399665139615536</v>
+        <v>0.04187099635601044</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.0009700964437797666</v>
+        <v>0.002297541126608849</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.001609809580259025</v>
+        <v>0.008399352431297302</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.83168216003105e-05</v>
+        <v>0.0009102043695747852</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0006077670259401202</v>
+        <v>0.02807123400270939</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0002243869530502707</v>
+        <v>0.00256158341653645</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.0009328219457529485</v>
+        <v>0.01317024976015091</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0002878480008803308</v>
+        <v>0.02483553253114223</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.004063391126692295</v>
+        <v>0.03235190361738205</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.001012348686344922</v>
+        <v>0.1736998409032822</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.004317376762628555</v>
+        <v>0.005375235341489315</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.001478762598708272</v>
+        <v>0.04496053233742714</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0006583911017514765</v>
+        <v>0.01709465309977531</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.001387500087730587</v>
+        <v>0.1077655255794525</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.0007287649787031114</v>
+        <v>0.02394679933786392</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0003755690122488886</v>
+        <v>0.0204777829349041</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0003668480785563588</v>
+        <v>0.06129929423332214</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.001395787345245481</v>
+        <v>0.0216589942574501</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.0004848653625231236</v>
+        <v>0.03791249915957451</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.002294803503900766</v>
+        <v>0.04754414781928062</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0001950178557308391</v>
+        <v>0.00249142711982131</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.002704986836761236</v>
+        <v>0.03823554515838623</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.00119840179104358</v>
+        <v>0.06128839775919914</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.00147494301199913</v>
+        <v>0.01917595602571964</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.001166914473287761</v>
+        <v>0.01999368704855442</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.0004705241299234331</v>
+        <v>0.01394461281597614</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.0005067484453320503</v>
+        <v>0.0001503666862845421</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.001325001823715866</v>
+        <v>0.0546487532556057</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.001386891584843397</v>
+        <v>0.00672224722802639</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.0007443609647452831</v>
+        <v>0.01508929952979088</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.002196868881583214</v>
+        <v>0.003939978778362274</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.0009819165570661426</v>
+        <v>0.001912229578010738</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.000638506724499166</v>
+        <v>0.01697306707501411</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.001224872888997197</v>
+        <v>0.006471746601164341</v>
       </c>
       <c r="BT9" t="n">
-        <v>4.729615466203541e-05</v>
+        <v>0.006727925501763821</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.003678509732708335</v>
+        <v>0.01539248321205378</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.0004567594733089209</v>
+        <v>0.09007550776004791</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.001793169183656573</v>
+        <v>0.01483060978353024</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0005708122625946999</v>
+        <v>0.03765137121081352</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.001548171974718571</v>
+        <v>0.02255133725702763</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.0006798924296163023</v>
+        <v>0.04176545515656471</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.0006618232000619173</v>
+        <v>0.01393814291805029</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.0003325298021081835</v>
+        <v>0.0002313493750989437</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.001220057718455791</v>
+        <v>0.04003608599305153</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.001905707875266671</v>
+        <v>0.001381583511829376</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.002196916844695807</v>
+        <v>0.03101350367069244</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.001658683293499053</v>
+        <v>0.02275220118463039</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.0001921372022479773</v>
+        <v>0.01631583645939827</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0002439352974761277</v>
+        <v>0.005913358181715012</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.0007076495094224811</v>
+        <v>0.0315823070704937</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.0001480892387917265</v>
+        <v>0.01641953736543655</v>
       </c>
       <c r="CK9" t="n">
-        <v>5.317269824445248e-05</v>
+        <v>0.01131806336343288</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.0002075005759252235</v>
+        <v>0.02083336561918259</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.0006116989534348249</v>
+        <v>0.05034342035651207</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.0001308680220972747</v>
+        <v>0.007730855606496334</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.0002573845267761499</v>
+        <v>0.005318635143339634</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.0009023312595672905</v>
+        <v>0.0362873338162899</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.001761764637194574</v>
+        <v>0.001192907337099314</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.0003903508768416941</v>
+        <v>0.006107674911618233</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.0004630759649444371</v>
+        <v>0.04923717677593231</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0001021686475723982</v>
+        <v>0.04619910195469856</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0001103620161302388</v>
+        <v>0.009500612504780293</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.001699293730780482</v>
+        <v>0.0001195187214761972</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.001998592866584659</v>
+        <v>0.02730012498795986</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.001919442787766457</v>
+        <v>0.01881650649011135</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.0003340484399814159</v>
+        <v>0.02870979718863964</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.001219503348693252</v>
+        <v>0.007997095584869385</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.0009735636413097382</v>
+        <v>0.03324554488062859</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.0002161097654607147</v>
+        <v>0.01652374491095543</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.0002562963636592031</v>
+        <v>0.02352634444832802</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.000124595986562781</v>
+        <v>0.01090287044644356</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.0007678621914237738</v>
+        <v>0.005340783856809139</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.005045210942625999</v>
+        <v>0.01120668277144432</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.001696798717603087</v>
+        <v>0.007310524582862854</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.0005922333803027868</v>
+        <v>0.08527781814336777</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.001236383803188801</v>
+        <v>0.04483778774738312</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.001311307307332754</v>
+        <v>0.02795918844640255</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.001257584663107991</v>
+        <v>0.004713171161711216</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.0003087951918132603</v>
+        <v>0.03878370299935341</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.000213817591429688</v>
+        <v>0.02164205349981785</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0003612642758525908</v>
+        <v>0.004920377396047115</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.002342756139114499</v>
+        <v>0.0031406763009727</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.0004643505089916289</v>
+        <v>0.01693795807659626</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.0001657559478189796</v>
+        <v>0.0004337313584983349</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0005002561374567449</v>
+        <v>0.008421801961958408</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.0006337017985060811</v>
+        <v>0.002283880952745676</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.0001016406531562097</v>
+        <v>0.00104664801619947</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.0002099672565236688</v>
+        <v>0.002834649290889502</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.0005943402065895498</v>
+        <v>0.02057269774377346</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.001101192086935043</v>
+        <v>0.0001513669267296791</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.001070731319487095</v>
+        <v>0.0252188928425312</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.0004379599704407156</v>
+        <v>0.01928079500794411</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.001034676213748753</v>
+        <v>0.008103316649794579</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0008692785631865263</v>
+        <v>0.00138934375718236</v>
       </c>
       <c r="EB9" t="n">
-        <v>9.50635876506567e-06</v>
+        <v>0.01551226247102022</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.0004652737115975469</v>
+        <v>0.0007104217074811459</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.001013932167552412</v>
+        <v>0.004836912266910076</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.0001108989090425894</v>
+        <v>0.0101972296833992</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.002782769966870546</v>
+        <v>0.01348243094980717</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.001517863944172859</v>
+        <v>0.03572700917720795</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.001888206112198532</v>
+        <v>0.01130735781043768</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.0003693148610182106</v>
+        <v>0.007187223993241787</v>
       </c>
       <c r="EJ9" t="n">
-        <v>5.523953586816788e-05</v>
+        <v>8.202483877539635e-05</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.002329281996935606</v>
+        <v>0.02313658222556114</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.0002574340614955872</v>
+        <v>0.01592731103301048</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.00136131641920656</v>
+        <v>0.006859187036752701</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.000975746545009315</v>
+        <v>0.01097701955586672</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.0009875904070213437</v>
+        <v>0.001153502613306046</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.001642347313463688</v>
+        <v>0.01492869574576616</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.0003334955545142293</v>
+        <v>0.01754457503557205</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.0003420895664021373</v>
+        <v>0.02199815027415752</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.00113898073323071</v>
+        <v>0.01740813255310059</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.0006911924574524164</v>
+        <v>0.02959133125841618</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.0002714526781346649</v>
+        <v>0.03905221074819565</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.0003704000846482813</v>
+        <v>0.06678984314203262</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.0004170464526396245</v>
+        <v>0.005901198834180832</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.001783405430614948</v>
+        <v>0.004123020451515913</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.00178921059705317</v>
+        <v>0.02567833662033081</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.001729546347633004</v>
+        <v>0.0155309671536088</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.00018482786254026</v>
+        <v>0.02027012594044209</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0009271296439692378</v>
+        <v>0.004942032974213362</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.0003031105734407902</v>
+        <v>0.02759478241205215</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.0001820999605115503</v>
+        <v>0.02859637886285782</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.0002517304965294898</v>
+        <v>0.01527217030525208</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.0004425104707479477</v>
+        <v>0.02188032492995262</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.0007984678377397358</v>
+        <v>0.01078008860349655</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.0007321364246308804</v>
+        <v>0.007210119161754847</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.002241194015368819</v>
+        <v>0.01567903906106949</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.001824753009714186</v>
+        <v>0.03749755769968033</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.00028949324041605</v>
+        <v>0.008984709158539772</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.0009896333795040846</v>
+        <v>0.01825453341007233</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.0001956210908247158</v>
+        <v>0.0005547641776502132</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.0005339474882930517</v>
+        <v>0.01815658807754517</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.0001519985671620816</v>
+        <v>0.01698459312319756</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.001204065047204494</v>
+        <v>0.01559801958501339</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.004131595604121685</v>
+        <v>0.03934814780950546</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.0009697837522253394</v>
+        <v>0.03251191973686218</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.0006154091679491103</v>
+        <v>0.0003659832291305065</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.0009060954907909036</v>
+        <v>0.004876871593296528</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.00122242362704128</v>
+        <v>0.01117378659546375</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.0002680585021153092</v>
+        <v>0.02655639685690403</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.0004139808879699558</v>
+        <v>0.004022484645247459</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.0003287360304966569</v>
+        <v>0.01491651218384504</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.001270757522433996</v>
+        <v>0.04654818028211594</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.001158475875854492</v>
+        <v>0.01586588658392429</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.0009306570864282548</v>
+        <v>0.02829737588763237</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.0002581136650405824</v>
+        <v>0.01245159562677145</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.001650955993682146</v>
+        <v>0.01304948329925537</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.0001113282633014023</v>
+        <v>0.01801168918609619</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.0006679372163489461</v>
+        <v>0.1004845723509789</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.0001110300290747546</v>
+        <v>0.001938051544129848</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.0009286368731409311</v>
+        <v>0.004058975260704756</v>
       </c>
     </row>
     <row r="10">
@@ -6694,1140 +6694,1140 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0002018275263253599</v>
+        <v>0.000144314777571708</v>
       </c>
       <c r="B12" t="n">
-        <v>1.230780617333949e-05</v>
+        <v>0.001869396190159023</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002282050118083134</v>
+        <v>0.0001237125543411821</v>
       </c>
       <c r="D12" t="n">
-        <v>5.510240953299217e-05</v>
+        <v>0.000392859656130895</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001074143801815808</v>
+        <v>0.0004673385119531304</v>
       </c>
       <c r="F12" t="n">
-        <v>9.533481716061942e-06</v>
+        <v>0.0004175872600171715</v>
       </c>
       <c r="G12" t="n">
-        <v>6.445926555898041e-05</v>
+        <v>0.000289405114017427</v>
       </c>
       <c r="H12" t="n">
-        <v>3.376936365384609e-05</v>
+        <v>0.0002337529003852978</v>
       </c>
       <c r="I12" t="n">
-        <v>7.148427539505064e-05</v>
+        <v>0.0002795870532281697</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001941232330864295</v>
+        <v>0.0002041987463599071</v>
       </c>
       <c r="K12" t="n">
-        <v>1.701804831100162e-05</v>
+        <v>0.001648076227866113</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002418596559436992</v>
+        <v>4.456980605027638e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>2.753449189185631e-05</v>
+        <v>0.0002343781525269151</v>
       </c>
       <c r="N12" t="n">
-        <v>2.715946902753785e-05</v>
+        <v>7.928599370643497e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.501446513429983e-05</v>
+        <v>0.0003300730313640088</v>
       </c>
       <c r="P12" t="n">
-        <v>5.43569985893555e-05</v>
+        <v>0.0001585933787282556</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.92928588250652e-05</v>
+        <v>0.0001919291680678725</v>
       </c>
       <c r="R12" t="n">
-        <v>8.418651850661263e-05</v>
+        <v>0.0003656261833384633</v>
       </c>
       <c r="S12" t="n">
-        <v>1.595839421497658e-06</v>
+        <v>8.659066224936396e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>6.108170055085793e-05</v>
+        <v>0.0002210674429079518</v>
       </c>
       <c r="U12" t="n">
-        <v>7.13496956450399e-06</v>
+        <v>6.789417966501787e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>2.349580790905748e-05</v>
+        <v>0.0001651412167120725</v>
       </c>
       <c r="W12" t="n">
-        <v>8.523353471900919e-07</v>
+        <v>0.0002051943447440863</v>
       </c>
       <c r="X12" t="n">
-        <v>1.090348359866766e-05</v>
+        <v>6.040728112566285e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.573038935021032e-05</v>
+        <v>2.820397821778897e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.70256527478341e-05</v>
+        <v>0.0003487916255835444</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.399967449193355e-06</v>
+        <v>0.0001241104037035257</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.55022483645007e-06</v>
+        <v>0.000136229646159336</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.172232259705197e-05</v>
+        <v>0.0001441746426280588</v>
       </c>
       <c r="AD12" t="n">
-        <v>4.682300641434267e-06</v>
+        <v>1.813095877878368e-05</v>
       </c>
       <c r="AE12" t="n">
-        <v>3.722522887983359e-05</v>
+        <v>9.937054710462689e-05</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.240937182155903e-06</v>
+        <v>6.070603194530122e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.312314361712197e-05</v>
+        <v>5.553246955969371e-05</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.26116083265515e-05</v>
+        <v>5.011488974560052e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.210300827864558e-05</v>
+        <v>6.951438263058662e-05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.141598714748397e-05</v>
+        <v>4.024465306429192e-05</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.556796193355694e-05</v>
+        <v>0.0003018919960595667</v>
       </c>
       <c r="AL12" t="n">
-        <v>5.382800009101629e-05</v>
+        <v>0.0001816431031329557</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.160461190214846e-05</v>
+        <v>3.401021604076959e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.215419514570385e-05</v>
+        <v>0.0001500809448771179</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.774193025194108e-06</v>
+        <v>0.0001624881697352976</v>
       </c>
       <c r="AP12" t="n">
-        <v>8.626133421785198e-06</v>
+        <v>0.00012848453479819</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6.170252504489326e-07</v>
+        <v>0.0001283932651858777</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.485608820279595e-05</v>
+        <v>1.588609666214325e-05</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.402743227023166e-06</v>
+        <v>0.0001367280056001619</v>
       </c>
       <c r="AT12" t="n">
-        <v>8.920317486627027e-05</v>
+        <v>3.662845119833946e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>4.87310862808954e-05</v>
+        <v>0.001121829729527235</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.000112744135549292</v>
+        <v>0.0001618846436031163</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.883694080286659e-05</v>
+        <v>8.812497981125489e-05</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.497946979929111e-06</v>
+        <v>7.229076436487958e-05</v>
       </c>
       <c r="AY12" t="n">
-        <v>7.420632755383849e-05</v>
+        <v>0.0001172524498542771</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.78667539532762e-05</v>
+        <v>0.0004197589005343616</v>
       </c>
       <c r="BA12" t="n">
-        <v>3.208310954505578e-05</v>
+        <v>0.0001679434790275991</v>
       </c>
       <c r="BB12" t="n">
-        <v>6.461687007686123e-06</v>
+        <v>0.0001625605946173891</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.057321009691805e-05</v>
+        <v>3.578893665689975e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>4.431243723956868e-06</v>
+        <v>0.0002903149579651654</v>
       </c>
       <c r="BE12" t="n">
-        <v>8.166588668245822e-05</v>
+        <v>0.0002992796071339399</v>
       </c>
       <c r="BF12" t="n">
-        <v>6.676206794509199e-06</v>
+        <v>9.877493721432984e-05</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.618758975993842e-05</v>
+        <v>0.000282326975138858</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.236641310242703e-05</v>
+        <v>0.0002185789489885792</v>
       </c>
       <c r="BI12" t="n">
-        <v>6.923626642674208e-05</v>
+        <v>5.221756873652339e-05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3.340009061503224e-05</v>
+        <v>0.0002228934463346377</v>
       </c>
       <c r="BK12" t="n">
-        <v>2.284543916175608e-05</v>
+        <v>0.0003162974899169058</v>
       </c>
       <c r="BL12" t="n">
-        <v>8.360993888345547e-06</v>
+        <v>0.0001090959849534556</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.367539789498551e-05</v>
+        <v>0.0001654686639085412</v>
       </c>
       <c r="BN12" t="n">
-        <v>4.41333104390651e-05</v>
+        <v>4.707854895968921e-05</v>
       </c>
       <c r="BO12" t="n">
-        <v>7.348397502937587e-06</v>
+        <v>8.407361747231334e-05</v>
       </c>
       <c r="BP12" t="n">
-        <v>4.181743497611023e-05</v>
+        <v>8.476828952552751e-05</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.062846968125086e-05</v>
+        <v>2.976757787109818e-05</v>
       </c>
       <c r="BR12" t="n">
-        <v>1.614314533071592e-05</v>
+        <v>0.0001225361338583753</v>
       </c>
       <c r="BS12" t="n">
-        <v>3.72513422917109e-05</v>
+        <v>2.372489143454004e-05</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.649204932618886e-06</v>
+        <v>8.294339932035655e-05</v>
       </c>
       <c r="BU12" t="n">
-        <v>8.356136822840199e-05</v>
+        <v>3.47357417922467e-05</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.678463740972802e-05</v>
+        <v>0.0006513716070912778</v>
       </c>
       <c r="BW12" t="n">
-        <v>4.269081910024397e-05</v>
+        <v>0.0001497179036960006</v>
       </c>
       <c r="BX12" t="n">
-        <v>3.644985918072052e-05</v>
+        <v>8.579660061514005e-05</v>
       </c>
       <c r="BY12" t="n">
-        <v>4.443663783604279e-05</v>
+        <v>7.057842594804242e-05</v>
       </c>
       <c r="BZ12" t="n">
-        <v>2.134878377546556e-05</v>
+        <v>8.509851795679424e-06</v>
       </c>
       <c r="CA12" t="n">
-        <v>8.330844138981774e-07</v>
+        <v>5.072478234069422e-05</v>
       </c>
       <c r="CB12" t="n">
-        <v>3.897648184647551e-06</v>
+        <v>3.524679414113052e-06</v>
       </c>
       <c r="CC12" t="n">
-        <v>3.847136395052075e-05</v>
+        <v>4.377466029836796e-05</v>
       </c>
       <c r="CD12" t="n">
-        <v>4.316554259276018e-05</v>
+        <v>8.167060877894983e-05</v>
       </c>
       <c r="CE12" t="n">
-        <v>4.942718805978075e-05</v>
+        <v>0.0003189050767105073</v>
       </c>
       <c r="CF12" t="n">
-        <v>4.890590935247019e-05</v>
+        <v>6.631863652728498e-05</v>
       </c>
       <c r="CG12" t="n">
-        <v>4.998997610528022e-06</v>
+        <v>4.623439235729165e-05</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.03765605672379e-05</v>
+        <v>6.810612831031904e-05</v>
       </c>
       <c r="CI12" t="n">
-        <v>1.85990229510935e-05</v>
+        <v>1.166157835541526e-05</v>
       </c>
       <c r="CJ12" t="n">
-        <v>7.907503459136933e-06</v>
+        <v>0.0001224772859131917</v>
       </c>
       <c r="CK12" t="n">
-        <v>8.383004569623154e-06</v>
+        <v>5.08287557750009e-05</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.784029791451758e-06</v>
+        <v>8.686283399583772e-05</v>
       </c>
       <c r="CM12" t="n">
-        <v>8.542579053028021e-06</v>
+        <v>0.0004538365465123206</v>
       </c>
       <c r="CN12" t="n">
-        <v>5.658088048221543e-05</v>
+        <v>6.880261935293674e-05</v>
       </c>
       <c r="CO12" t="n">
-        <v>2.172406493627932e-05</v>
+        <v>7.271065260283649e-05</v>
       </c>
       <c r="CP12" t="n">
-        <v>1.810592038964387e-05</v>
+        <v>0.0005464509013108909</v>
       </c>
       <c r="CQ12" t="n">
-        <v>2.295614467584528e-05</v>
+        <v>0.0003382407012395561</v>
       </c>
       <c r="CR12" t="n">
-        <v>1.074403098755283e-05</v>
+        <v>0.0004243392031639814</v>
       </c>
       <c r="CS12" t="n">
-        <v>1.005082140181912e-06</v>
+        <v>0.0003089748206548393</v>
       </c>
       <c r="CT12" t="n">
-        <v>4.670039743359666e-06</v>
+        <v>0.0001630076149012893</v>
       </c>
       <c r="CU12" t="n">
-        <v>1.366336073260754e-05</v>
+        <v>0.0002466056030243635</v>
       </c>
       <c r="CV12" t="n">
-        <v>3.997203384642489e-05</v>
+        <v>7.479024498024955e-05</v>
       </c>
       <c r="CW12" t="n">
-        <v>4.531205195235088e-05</v>
+        <v>0.0003035457921214402</v>
       </c>
       <c r="CX12" t="n">
-        <v>5.329248961061239e-05</v>
+        <v>6.857843982288614e-05</v>
       </c>
       <c r="CY12" t="n">
-        <v>8.288486128549266e-07</v>
+        <v>0.0001324387994827703</v>
       </c>
       <c r="CZ12" t="n">
-        <v>3.350371844135225e-05</v>
+        <v>9.321765537606552e-05</v>
       </c>
       <c r="DA12" t="n">
-        <v>1.977692227228545e-05</v>
+        <v>3.159762491122819e-05</v>
       </c>
       <c r="DB12" t="n">
-        <v>8.034272468648851e-06</v>
+        <v>0.0001223819999722764</v>
       </c>
       <c r="DC12" t="n">
-        <v>5.36633342562709e-06</v>
+        <v>9.424450399819762e-05</v>
       </c>
       <c r="DD12" t="n">
-        <v>5.493707249115687e-06</v>
+        <v>0.0001018870752886869</v>
       </c>
       <c r="DE12" t="n">
-        <v>9.330737157142721e-06</v>
+        <v>0.0001602504344191402</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0001055442480719648</v>
+        <v>0.0002697846502996981</v>
       </c>
       <c r="DG12" t="n">
-        <v>2.641989158291835e-05</v>
+        <v>0.0001060251670423895</v>
       </c>
       <c r="DH12" t="n">
-        <v>1.032067848427687e-05</v>
+        <v>0.0002537966065574437</v>
       </c>
       <c r="DI12" t="n">
-        <v>3.377946268301457e-05</v>
+        <v>0.0005414252518676221</v>
       </c>
       <c r="DJ12" t="n">
-        <v>9.660339856054634e-06</v>
+        <v>0.0007134765619412065</v>
       </c>
       <c r="DK12" t="n">
-        <v>7.026429557299707e-06</v>
+        <v>6.012119411025196e-05</v>
       </c>
       <c r="DL12" t="n">
-        <v>9.859468264039606e-08</v>
+        <v>9.285258420277387e-05</v>
       </c>
       <c r="DM12" t="n">
-        <v>1.938375135068782e-05</v>
+        <v>0.0004017963947262615</v>
       </c>
       <c r="DN12" t="n">
-        <v>5.320871423464268e-06</v>
+        <v>0.0001132622419390827</v>
       </c>
       <c r="DO12" t="n">
-        <v>6.570289406226948e-05</v>
+        <v>0.0001103864924516529</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.726858499750961e-05</v>
+        <v>0.0001525800325907767</v>
       </c>
       <c r="DQ12" t="n">
-        <v>8.359993444173597e-07</v>
+        <v>0.0001601546246092767</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.309204981225776e-05</v>
+        <v>7.784319313941523e-05</v>
       </c>
       <c r="DS12" t="n">
-        <v>1.298789902648423e-05</v>
+        <v>8.210854139178991e-05</v>
       </c>
       <c r="DT12" t="n">
-        <v>4.593862286128569e-07</v>
+        <v>0.0002380119840381667</v>
       </c>
       <c r="DU12" t="n">
-        <v>1.018851435219403e-05</v>
+        <v>0.0001968070573639125</v>
       </c>
       <c r="DV12" t="n">
-        <v>5.198927283345256e-06</v>
+        <v>0.0001036545509123243</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.729650102788582e-05</v>
+        <v>4.389646710478701e-05</v>
       </c>
       <c r="DX12" t="n">
-        <v>1.630862971069291e-05</v>
+        <v>0.0002336534962523729</v>
       </c>
       <c r="DY12" t="n">
-        <v>8.554836767871166e-07</v>
+        <v>6.561427289852872e-05</v>
       </c>
       <c r="DZ12" t="n">
-        <v>4.361540050012991e-06</v>
+        <v>0.0002411552704870701</v>
       </c>
       <c r="EA12" t="n">
-        <v>3.781507984967902e-05</v>
+        <v>0.000179271912202239</v>
       </c>
       <c r="EB12" t="n">
-        <v>9.743599548528437e-06</v>
+        <v>6.672294693998992e-05</v>
       </c>
       <c r="EC12" t="n">
-        <v>3.82430062018102e-06</v>
+        <v>3.868046042043716e-05</v>
       </c>
       <c r="ED12" t="n">
-        <v>2.747302096395288e-05</v>
+        <v>0.0001862592907855287</v>
       </c>
       <c r="EE12" t="n">
-        <v>2.718006726354361e-07</v>
+        <v>0.0003856640250887722</v>
       </c>
       <c r="EF12" t="n">
-        <v>6.075008423067629e-05</v>
+        <v>0.0002549297641962767</v>
       </c>
       <c r="EG12" t="n">
-        <v>4.063480446347967e-05</v>
+        <v>0.0004440037009771913</v>
       </c>
       <c r="EH12" t="n">
-        <v>4.680265919887461e-05</v>
+        <v>2.573709934949875e-05</v>
       </c>
       <c r="EI12" t="n">
-        <v>1.646874079597183e-05</v>
+        <v>1.034650631481782e-05</v>
       </c>
       <c r="EJ12" t="n">
-        <v>1.062431329046376e-05</v>
+        <v>4.685897238232428e-06</v>
       </c>
       <c r="EK12" t="n">
-        <v>5.242905535851605e-05</v>
+        <v>0.0002432379842502996</v>
       </c>
       <c r="EL12" t="n">
-        <v>5.065975528850686e-06</v>
+        <v>0.000168841754202731</v>
       </c>
       <c r="EM12" t="n">
-        <v>3.751046460820362e-05</v>
+        <v>9.037042764248326e-05</v>
       </c>
       <c r="EN12" t="n">
-        <v>2.087114989990368e-05</v>
+        <v>2.785430297080893e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.868950312200468e-05</v>
+        <v>8.689709648024291e-05</v>
       </c>
       <c r="EP12" t="n">
-        <v>2.702551319089253e-05</v>
+        <v>0.0001167322843684815</v>
       </c>
       <c r="EQ12" t="n">
-        <v>1.111739402404055e-05</v>
+        <v>0.0001265308383153751</v>
       </c>
       <c r="ER12" t="n">
-        <v>7.414115316350944e-06</v>
+        <v>0.0001812790287658572</v>
       </c>
       <c r="ES12" t="n">
-        <v>2.242824120912701e-05</v>
+        <v>0.0001911258441396058</v>
       </c>
       <c r="ET12" t="n">
-        <v>2.981530451506842e-05</v>
+        <v>1.449551928089932e-05</v>
       </c>
       <c r="EU12" t="n">
-        <v>3.187945185345598e-05</v>
+        <v>0.000333867414155975</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.465260174882133e-05</v>
+        <v>0.0002429642336210236</v>
       </c>
       <c r="EW12" t="n">
-        <v>2.444132587697823e-05</v>
+        <v>0.0001060033100657165</v>
       </c>
       <c r="EX12" t="n">
-        <v>3.940361057175323e-05</v>
+        <v>9.93850699160248e-05</v>
       </c>
       <c r="EY12" t="n">
-        <v>4.171447653789073e-05</v>
+        <v>0.0003124684153590351</v>
       </c>
       <c r="EZ12" t="n">
-        <v>5.10315912833903e-05</v>
+        <v>5.056027293903753e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>3.193606517015724e-07</v>
+        <v>2.398886499577202e-05</v>
       </c>
       <c r="FB12" t="n">
-        <v>2.464599128870759e-05</v>
+        <v>6.406837928807363e-05</v>
       </c>
       <c r="FC12" t="n">
-        <v>4.972023816662841e-06</v>
+        <v>9.515457350062206e-06</v>
       </c>
       <c r="FD12" t="n">
-        <v>9.671343832451385e-06</v>
+        <v>0.0001864988298621029</v>
       </c>
       <c r="FE12" t="n">
-        <v>1.196887023979798e-05</v>
+        <v>7.94623265392147e-05</v>
       </c>
       <c r="FF12" t="n">
-        <v>1.184643679152941e-05</v>
+        <v>0.0001460718340240419</v>
       </c>
       <c r="FG12" t="n">
-        <v>3.037963870156091e-05</v>
+        <v>9.368343307869509e-05</v>
       </c>
       <c r="FH12" t="n">
-        <v>3.68538803741103e-06</v>
+        <v>9.774856880540028e-05</v>
       </c>
       <c r="FI12" t="n">
-        <v>4.405785875860602e-05</v>
+        <v>0.0001715690596029162</v>
       </c>
       <c r="FJ12" t="n">
-        <v>3.773169373744167e-05</v>
+        <v>0.0002771826984826475</v>
       </c>
       <c r="FK12" t="n">
-        <v>5.598898496828042e-06</v>
+        <v>0.0001200075348606333</v>
       </c>
       <c r="FL12" t="n">
-        <v>2.745460369624197e-05</v>
+        <v>3.753237979253754e-05</v>
       </c>
       <c r="FM12" t="n">
-        <v>9.636157301429193e-06</v>
+        <v>0.0001360860042041168</v>
       </c>
       <c r="FN12" t="n">
-        <v>5.544709438254358e-06</v>
+        <v>7.71599734434858e-05</v>
       </c>
       <c r="FO12" t="n">
-        <v>1.249771685252199e-05</v>
+        <v>0.0001498602796345949</v>
       </c>
       <c r="FP12" t="n">
-        <v>6.711852620355785e-07</v>
+        <v>0.0002710186818148941</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.0001130644232034683</v>
+        <v>0.0001263443264178932</v>
       </c>
       <c r="FR12" t="n">
-        <v>1.826650441216771e-05</v>
+        <v>0.0002092294016620144</v>
       </c>
       <c r="FS12" t="n">
-        <v>2.956400567200035e-05</v>
+        <v>0.0002723265788517892</v>
       </c>
       <c r="FT12" t="n">
-        <v>7.215830919449218e-06</v>
+        <v>3.111476326012053e-05</v>
       </c>
       <c r="FU12" t="n">
-        <v>2.082965329464059e-05</v>
+        <v>0.0002428536681691185</v>
       </c>
       <c r="FV12" t="n">
-        <v>6.871268851682544e-07</v>
+        <v>7.982909301063046e-05</v>
       </c>
       <c r="FW12" t="n">
-        <v>1.037475612974958e-06</v>
+        <v>8.873403203324415e-07</v>
       </c>
       <c r="FX12" t="n">
-        <v>8.439292287221178e-06</v>
+        <v>8.96219426067546e-05</v>
       </c>
       <c r="FY12" t="n">
-        <v>2.415979361103382e-05</v>
+        <v>0.0003071661340072751</v>
       </c>
       <c r="FZ12" t="n">
-        <v>8.128862646117341e-06</v>
+        <v>8.165003237081692e-05</v>
       </c>
       <c r="GA12" t="n">
-        <v>2.843431957444409e-06</v>
+        <v>6.751508772140369e-05</v>
       </c>
       <c r="GB12" t="n">
-        <v>3.934303094865754e-06</v>
+        <v>1.665238960413262e-05</v>
       </c>
       <c r="GC12" t="n">
-        <v>3.535014184308238e-05</v>
+        <v>9.690553997643292e-05</v>
       </c>
       <c r="GD12" t="n">
-        <v>3.64547195204068e-05</v>
+        <v>0.0001629586913622916</v>
       </c>
       <c r="GE12" t="n">
-        <v>6.189626674313331e-06</v>
+        <v>1.806791988201439e-05</v>
       </c>
       <c r="GF12" t="n">
-        <v>1.446545502403751e-05</v>
+        <v>0.0001598936360096559</v>
       </c>
       <c r="GG12" t="n">
-        <v>9.810501069296151e-06</v>
+        <v>0.0001296707923756912</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.169228875776753e-05</v>
+        <v>0.00167021865490824</v>
       </c>
       <c r="B13" t="n">
-        <v>0.000100819488579873</v>
+        <v>9.457235137233511e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001828414970077574</v>
+        <v>0.0001039326598402113</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001519345096312463</v>
+        <v>0.0004113095346838236</v>
       </c>
       <c r="E13" t="n">
-        <v>1.421246270183474e-05</v>
+        <v>8.604559843661264e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>3.776945595745929e-05</v>
+        <v>0.001741273095831275</v>
       </c>
       <c r="G13" t="n">
-        <v>7.449634722433984e-05</v>
+        <v>0.0002676239528227597</v>
       </c>
       <c r="H13" t="n">
-        <v>8.52013545227237e-06</v>
+        <v>0.0008560880087316036</v>
       </c>
       <c r="I13" t="n">
-        <v>3.823844599537551e-05</v>
+        <v>3.276838469901122e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.356483648531139e-05</v>
+        <v>0.001234577037394047</v>
       </c>
       <c r="K13" t="n">
-        <v>5.677435547113419e-05</v>
+        <v>0.0001699691492831334</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002034642093349248</v>
+        <v>2.443724952172488e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0001371781836496666</v>
+        <v>0.000219470530282706</v>
       </c>
       <c r="N13" t="n">
-        <v>9.401339048054069e-05</v>
+        <v>0.000489481317345053</v>
       </c>
       <c r="O13" t="n">
-        <v>2.05478190764552e-05</v>
+        <v>0.001377980457618833</v>
       </c>
       <c r="P13" t="n">
-        <v>1.959125256689731e-05</v>
+        <v>0.0006541566690430045</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.713620753842406e-05</v>
+        <v>0.000984865939244628</v>
       </c>
       <c r="R13" t="n">
-        <v>2.635965029185172e-05</v>
+        <v>0.0001051660001394339</v>
       </c>
       <c r="S13" t="n">
-        <v>3.387917786312755e-06</v>
+        <v>0.0001898791088024154</v>
       </c>
       <c r="T13" t="n">
-        <v>1.616669578652363e-05</v>
+        <v>0.0005104299052618444</v>
       </c>
       <c r="U13" t="n">
-        <v>5.836147465743124e-06</v>
+        <v>3.203335654688999e-05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.105805495171808e-05</v>
+        <v>0.0004628211027011275</v>
       </c>
       <c r="W13" t="n">
-        <v>8.278719906229526e-05</v>
+        <v>0.0006969345267862082</v>
       </c>
       <c r="X13" t="n">
-        <v>2.090544148813933e-05</v>
+        <v>0.0003153313009534031</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.273500831506681e-05</v>
+        <v>0.0003236066550016403</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.6239958970109e-06</v>
+        <v>0.0001597583468537778</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.828651875257492e-05</v>
+        <v>8.049503958318383e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>5.615268673864193e-05</v>
+        <v>0.0003404128656256944</v>
       </c>
       <c r="AC13" t="n">
-        <v>3.657908382592723e-05</v>
+        <v>0.0003432836092542857</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.886487320414744e-05</v>
+        <v>0.0001445720554329455</v>
       </c>
       <c r="AE13" t="n">
-        <v>4.657420868170448e-05</v>
+        <v>9.105939534492791e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.612646004417911e-05</v>
+        <v>1.436747697880492e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>5.101769784232602e-05</v>
+        <v>0.0002059012185782194</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.593689376022667e-05</v>
+        <v>1.703036105027422e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.13657028527814e-06</v>
+        <v>0.0002679356839507818</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.923517452785745e-05</v>
+        <v>4.354572593001649e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>6.154346920084208e-05</v>
+        <v>0.0003242402744945139</v>
       </c>
       <c r="AL13" t="n">
-        <v>4.771201201947406e-05</v>
+        <v>6.94378322805278e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>3.141593333566561e-05</v>
+        <v>0.000275331549346447</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.598859833204187e-06</v>
+        <v>0.000114569251309149</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.299694758927217e-06</v>
+        <v>0.0001353005063720047</v>
       </c>
       <c r="AP13" t="n">
-        <v>5.008853622712195e-05</v>
+        <v>3.333595668664202e-05</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.470341425781953e-06</v>
+        <v>0.0001418007013853639</v>
       </c>
       <c r="AR13" t="n">
-        <v>7.935213943710551e-06</v>
+        <v>7.619181269546971e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>8.234623237513006e-06</v>
+        <v>1.997238905460108e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.789467518799938e-05</v>
+        <v>0.0009070850792340934</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.653089126804844e-05</v>
+        <v>0.000221832815441303</v>
       </c>
       <c r="AV13" t="n">
-        <v>7.672791252844036e-05</v>
+        <v>8.402916137129068e-06</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.880404670373537e-05</v>
+        <v>0.0004851377452723682</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.957875641295686e-05</v>
+        <v>0.001159089268185198</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.284173686144641e-05</v>
+        <v>0.0007836536387912929</v>
       </c>
       <c r="AZ13" t="n">
-        <v>5.612855238723569e-05</v>
+        <v>0.000214110070373863</v>
       </c>
       <c r="BA13" t="n">
-        <v>5.35833096364513e-05</v>
+        <v>0.0004195109358988702</v>
       </c>
       <c r="BB13" t="n">
-        <v>3.817936158156954e-05</v>
+        <v>4.156238719588146e-05</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.843292739067692e-05</v>
+        <v>0.000372301583411172</v>
       </c>
       <c r="BD13" t="n">
-        <v>2.601922824396752e-05</v>
+        <v>0.0001624443248147145</v>
       </c>
       <c r="BE13" t="n">
-        <v>3.051207932003308e-05</v>
+        <v>9.064738696906716e-05</v>
       </c>
       <c r="BF13" t="n">
-        <v>3.395794192329049e-05</v>
+        <v>0.000129853084217757</v>
       </c>
       <c r="BG13" t="n">
-        <v>8.660253661219031e-05</v>
+        <v>0.0003903942997567356</v>
       </c>
       <c r="BH13" t="n">
-        <v>8.937448728829622e-05</v>
+        <v>0.0003902594035025686</v>
       </c>
       <c r="BI13" t="n">
-        <v>3.434276368352585e-05</v>
+        <v>0.0003353790671098977</v>
       </c>
       <c r="BJ13" t="n">
-        <v>6.499588198494166e-05</v>
+        <v>0.0004055915051139891</v>
       </c>
       <c r="BK13" t="n">
-        <v>6.383152140188031e-06</v>
+        <v>3.783356805797666e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>3.991005360148847e-05</v>
+        <v>2.205625605711248e-05</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.777151373971719e-05</v>
+        <v>0.0002696837473195046</v>
       </c>
       <c r="BN13" t="n">
-        <v>5.850930028827861e-05</v>
+        <v>9.568194218445569e-05</v>
       </c>
       <c r="BO13" t="n">
-        <v>5.9921867432422e-06</v>
+        <v>0.0004294213431421667</v>
       </c>
       <c r="BP13" t="n">
-        <v>8.731467460165732e-06</v>
+        <v>0.0003837457334157079</v>
       </c>
       <c r="BQ13" t="n">
-        <v>6.387297162291361e-06</v>
+        <v>4.100034857401624e-05</v>
       </c>
       <c r="BR13" t="n">
-        <v>4.19839852838777e-05</v>
+        <v>0.0003631241852417588</v>
       </c>
       <c r="BS13" t="n">
-        <v>2.665470128704328e-05</v>
+        <v>0.0004840173642151058</v>
       </c>
       <c r="BT13" t="n">
-        <v>2.410078013781458e-05</v>
+        <v>0.000231667043408379</v>
       </c>
       <c r="BU13" t="n">
-        <v>5.362507363315672e-05</v>
+        <v>0.0004505117249209434</v>
       </c>
       <c r="BV13" t="n">
-        <v>1.453593722544611e-05</v>
+        <v>0.000261965295067057</v>
       </c>
       <c r="BW13" t="n">
-        <v>4.060312130604871e-05</v>
+        <v>0.000180715651367791</v>
       </c>
       <c r="BX13" t="n">
-        <v>2.649140878929757e-05</v>
+        <v>0.0002590147196315229</v>
       </c>
       <c r="BY13" t="n">
-        <v>7.270071364473552e-05</v>
+        <v>0.0005098658730275929</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1.634532964089885e-05</v>
+        <v>0.000585670059081167</v>
       </c>
       <c r="CA13" t="n">
-        <v>4.220218033879064e-05</v>
+        <v>4.707853804575279e-05</v>
       </c>
       <c r="CB13" t="n">
-        <v>7.806166831869632e-05</v>
+        <v>0.0001970465818885714</v>
       </c>
       <c r="CC13" t="n">
-        <v>6.208168633747846e-05</v>
+        <v>1.544131737318821e-05</v>
       </c>
       <c r="CD13" t="n">
-        <v>3.651864972198382e-05</v>
+        <v>0.0003249882720410824</v>
       </c>
       <c r="CE13" t="n">
-        <v>1.343546045973198e-06</v>
+        <v>0.0002376708289375529</v>
       </c>
       <c r="CF13" t="n">
-        <v>4.054366945638321e-05</v>
+        <v>2.394972034380771e-05</v>
       </c>
       <c r="CG13" t="n">
-        <v>3.426771945669316e-05</v>
+        <v>1.570706444908865e-05</v>
       </c>
       <c r="CH13" t="n">
-        <v>6.925250545464223e-06</v>
+        <v>3.818058030446991e-05</v>
       </c>
       <c r="CI13" t="n">
-        <v>2.222375587734859e-05</v>
+        <v>0.0002575337130110711</v>
       </c>
       <c r="CJ13" t="n">
-        <v>2.27503423957387e-05</v>
+        <v>2.672460686881095e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>2.15024447243195e-05</v>
+        <v>0.0003021221491508186</v>
       </c>
       <c r="CL13" t="n">
-        <v>1.221920592797687e-05</v>
+        <v>3.335371002322063e-05</v>
       </c>
       <c r="CM13" t="n">
-        <v>1.418374540662626e-05</v>
+        <v>3.04564819089137e-05</v>
       </c>
       <c r="CN13" t="n">
-        <v>3.355487933731638e-05</v>
+        <v>8.544472802896053e-05</v>
       </c>
       <c r="CO13" t="n">
-        <v>3.888883657054976e-05</v>
+        <v>5.306265666149557e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>3.852974259643815e-05</v>
+        <v>2.838301043084357e-05</v>
       </c>
       <c r="CQ13" t="n">
-        <v>3.102526989096077e-06</v>
+        <v>0.0007699021953158081</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0001109130535041913</v>
+        <v>0.0001226038439199328</v>
       </c>
       <c r="CS13" t="n">
-        <v>6.8250774347689e-05</v>
+        <v>0.0002251061087008566</v>
       </c>
       <c r="CT13" t="n">
-        <v>2.72595261776587e-05</v>
+        <v>6.472003587987274e-05</v>
       </c>
       <c r="CU13" t="n">
-        <v>2.706849591049831e-05</v>
+        <v>0.0001393267011735588</v>
       </c>
       <c r="CV13" t="n">
-        <v>4.184739373158664e-05</v>
+        <v>0.0002993880480062217</v>
       </c>
       <c r="CW13" t="n">
-        <v>3.216205868739053e-06</v>
+        <v>0.0002217972651124001</v>
       </c>
       <c r="CX13" t="n">
-        <v>3.965808355133049e-05</v>
+        <v>4.503293166635558e-05</v>
       </c>
       <c r="CY13" t="n">
-        <v>2.834496626746841e-05</v>
+        <v>9.8626253020484e-05</v>
       </c>
       <c r="CZ13" t="n">
-        <v>8.739967597648501e-06</v>
+        <v>3.361049311934039e-05</v>
       </c>
       <c r="DA13" t="n">
-        <v>1.731540032778867e-05</v>
+        <v>0.0002509529876988381</v>
       </c>
       <c r="DB13" t="n">
-        <v>2.441974720568396e-05</v>
+        <v>9.168230462819338e-06</v>
       </c>
       <c r="DC13" t="n">
-        <v>2.20584242924815e-05</v>
+        <v>0.000317820260534063</v>
       </c>
       <c r="DD13" t="n">
-        <v>1.860772317741066e-05</v>
+        <v>2.331703944946639e-05</v>
       </c>
       <c r="DE13" t="n">
-        <v>1.45759986480698e-05</v>
+        <v>0.0001015603847918101</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.672794860496651e-05</v>
+        <v>4.186153091723099e-06</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0001654194202274084</v>
+        <v>8.462984260404482e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>6.17829427937977e-05</v>
+        <v>0.0002712910354603082</v>
       </c>
       <c r="DI13" t="n">
-        <v>1.13202549982816e-05</v>
+        <v>0.001021156320348382</v>
       </c>
       <c r="DJ13" t="n">
-        <v>8.201862328860443e-06</v>
+        <v>0.0001048705671564676</v>
       </c>
       <c r="DK13" t="n">
-        <v>8.36286271805875e-05</v>
+        <v>5.082425923319533e-05</v>
       </c>
       <c r="DL13" t="n">
-        <v>7.482988439733163e-05</v>
+        <v>0.0004910093848593533</v>
       </c>
       <c r="DM13" t="n">
-        <v>2.883393790398259e-07</v>
+        <v>0.0003435872786212713</v>
       </c>
       <c r="DN13" t="n">
-        <v>7.260393431351986e-06</v>
+        <v>0.0001932077575474977</v>
       </c>
       <c r="DO13" t="n">
-        <v>4.621335392585024e-05</v>
+        <v>9.108742233365774e-05</v>
       </c>
       <c r="DP13" t="n">
-        <v>1.459133090975229e-05</v>
+        <v>0.0001477284531574696</v>
       </c>
       <c r="DQ13" t="n">
-        <v>1.607897138455883e-05</v>
+        <v>0.0002956194803118706</v>
       </c>
       <c r="DR13" t="n">
-        <v>3.903358447132632e-05</v>
+        <v>0.0002545712632127106</v>
       </c>
       <c r="DS13" t="n">
-        <v>1.170213090517791e-05</v>
+        <v>0.0002335230819880962</v>
       </c>
       <c r="DT13" t="n">
-        <v>2.635548844409641e-05</v>
+        <v>1.033703301800415e-05</v>
       </c>
       <c r="DU13" t="n">
-        <v>2.221153044956736e-05</v>
+        <v>0.0004397512238938361</v>
       </c>
       <c r="DV13" t="n">
-        <v>1.920760587381665e-05</v>
+        <v>0.0001359848247375339</v>
       </c>
       <c r="DW13" t="n">
-        <v>2.928713365690783e-05</v>
+        <v>2.156382834073156e-06</v>
       </c>
       <c r="DX13" t="n">
-        <v>1.811288893804885e-05</v>
+        <v>0.000174379616510123</v>
       </c>
       <c r="DY13" t="n">
-        <v>1.955627703864593e-05</v>
+        <v>8.831164450384676e-06</v>
       </c>
       <c r="DZ13" t="n">
-        <v>7.008693501120433e-06</v>
+        <v>0.0001053648957167752</v>
       </c>
       <c r="EA13" t="n">
-        <v>3.81233257940039e-05</v>
+        <v>6.966355431359261e-05</v>
       </c>
       <c r="EB13" t="n">
-        <v>2.610227784316521e-05</v>
+        <v>0.0004054703167639673</v>
       </c>
       <c r="EC13" t="n">
-        <v>2.225474963779561e-05</v>
+        <v>0.0002119124983437359</v>
       </c>
       <c r="ED13" t="n">
-        <v>1.647101635171566e-05</v>
+        <v>0.000367523287422955</v>
       </c>
       <c r="EE13" t="n">
-        <v>1.551749846839812e-05</v>
+        <v>0.0001539886288810521</v>
       </c>
       <c r="EF13" t="n">
-        <v>4.398385499371216e-05</v>
+        <v>0.0002663191989995539</v>
       </c>
       <c r="EG13" t="n">
-        <v>4.869426629738882e-05</v>
+        <v>0.0004039595078211278</v>
       </c>
       <c r="EH13" t="n">
-        <v>4.536995402304456e-05</v>
+        <v>1.525594143458875e-05</v>
       </c>
       <c r="EI13" t="n">
-        <v>4.503093441599049e-05</v>
+        <v>0.0001829966640798375</v>
       </c>
       <c r="EJ13" t="n">
-        <v>5.079372931504622e-05</v>
+        <v>0.0001377759617753327</v>
       </c>
       <c r="EK13" t="n">
-        <v>4.034228186355904e-05</v>
+        <v>0.0001358421868644655</v>
       </c>
       <c r="EL13" t="n">
-        <v>1.642334245843813e-05</v>
+        <v>4.225572774885222e-05</v>
       </c>
       <c r="EM13" t="n">
-        <v>2.943009712907951e-05</v>
+        <v>1.93957475858042e-05</v>
       </c>
       <c r="EN13" t="n">
-        <v>1.31093083837186e-05</v>
+        <v>6.253326864680275e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>2.153304922103416e-05</v>
+        <v>9.829392365645617e-05</v>
       </c>
       <c r="EP13" t="n">
-        <v>2.140250217053108e-05</v>
+        <v>0.0003070847596973181</v>
       </c>
       <c r="EQ13" t="n">
-        <v>1.689230884949211e-05</v>
+        <v>7.616166840307415e-05</v>
       </c>
       <c r="ER13" t="n">
-        <v>1.395081199007109e-05</v>
+        <v>0.000132653716718778</v>
       </c>
       <c r="ES13" t="n">
-        <v>1.209519905387424e-05</v>
+        <v>0.0004557844949886203</v>
       </c>
       <c r="ET13" t="n">
-        <v>6.943954758753534e-06</v>
+        <v>8.481410623062402e-05</v>
       </c>
       <c r="EU13" t="n">
-        <v>4.864828224526718e-05</v>
+        <v>2.369064895901829e-05</v>
       </c>
       <c r="EV13" t="n">
-        <v>2.052272611763328e-05</v>
+        <v>6.031319935573265e-05</v>
       </c>
       <c r="EW13" t="n">
-        <v>8.521159543306567e-06</v>
+        <v>2.31600170081947e-05</v>
       </c>
       <c r="EX13" t="n">
-        <v>4.251352947903797e-05</v>
+        <v>0.0002573538513388485</v>
       </c>
       <c r="EY13" t="n">
-        <v>3.711374802151113e-06</v>
+        <v>0.0001832035486586392</v>
       </c>
       <c r="EZ13" t="n">
-        <v>4.137479118071496e-05</v>
+        <v>4.149982851231471e-05</v>
       </c>
       <c r="FA13" t="n">
-        <v>3.026760896318592e-05</v>
+        <v>7.206894224509597e-05</v>
       </c>
       <c r="FB13" t="n">
-        <v>3.296140221209498e-06</v>
+        <v>7.042604556772858e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>1.668774348217994e-05</v>
+        <v>0.0002192361571360379</v>
       </c>
       <c r="FD13" t="n">
-        <v>3.294640191597864e-05</v>
+        <v>5.375863838708028e-05</v>
       </c>
       <c r="FE13" t="n">
-        <v>1.782213803380728e-05</v>
+        <v>0.0004133410402573645</v>
       </c>
       <c r="FF13" t="n">
-        <v>3.637069767137291e-06</v>
+        <v>5.782567313872278e-07</v>
       </c>
       <c r="FG13" t="n">
-        <v>1.606206569704227e-05</v>
+        <v>0.0001954740146175027</v>
       </c>
       <c r="FH13" t="n">
-        <v>3.616597678046674e-05</v>
+        <v>0.0002578626153990626</v>
       </c>
       <c r="FI13" t="n">
-        <v>2.287211282236967e-05</v>
+        <v>0.000141154756420292</v>
       </c>
       <c r="FJ13" t="n">
-        <v>2.346152905374765e-05</v>
+        <v>6.83922553434968e-05</v>
       </c>
       <c r="FK13" t="n">
-        <v>1.611143670743331e-05</v>
+        <v>0.0001891303836600855</v>
       </c>
       <c r="FL13" t="n">
-        <v>1.116368366638198e-05</v>
+        <v>0.0002186479250667617</v>
       </c>
       <c r="FM13" t="n">
-        <v>2.010842399613466e-05</v>
+        <v>5.577541378443129e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>4.39399154856801e-05</v>
+        <v>0.0001239460834767669</v>
       </c>
       <c r="FO13" t="n">
-        <v>2.286144626850728e-05</v>
+        <v>6.068305083317682e-06</v>
       </c>
       <c r="FP13" t="n">
-        <v>1.239204357261769e-05</v>
+        <v>0.0001530023582745343</v>
       </c>
       <c r="FQ13" t="n">
-        <v>7.685751188546419e-05</v>
+        <v>0.00013038631004747</v>
       </c>
       <c r="FR13" t="n">
-        <v>4.364793130662292e-05</v>
+        <v>1.128824078477919e-05</v>
       </c>
       <c r="FS13" t="n">
-        <v>8.465781320410315e-07</v>
+        <v>0.0004744056495837867</v>
       </c>
       <c r="FT13" t="n">
-        <v>1.399587563355453e-05</v>
+        <v>2.861343455151655e-05</v>
       </c>
       <c r="FU13" t="n">
-        <v>4.46884187113028e-05</v>
+        <v>0.0004335285630077124</v>
       </c>
       <c r="FV13" t="n">
-        <v>4.997764335712418e-07</v>
+        <v>0.000273186044069007</v>
       </c>
       <c r="FW13" t="n">
-        <v>6.782875425415114e-05</v>
+        <v>5.068710379418917e-05</v>
       </c>
       <c r="FX13" t="n">
-        <v>2.951921032945393e-06</v>
+        <v>0.0001207228560815565</v>
       </c>
       <c r="FY13" t="n">
-        <v>1.543589496577624e-05</v>
+        <v>7.045459642540663e-05</v>
       </c>
       <c r="FZ13" t="n">
-        <v>1.47527780427481e-05</v>
+        <v>0.0002105933090206236</v>
       </c>
       <c r="GA13" t="n">
-        <v>1.654989682720043e-05</v>
+        <v>2.326890535186976e-05</v>
       </c>
       <c r="GB13" t="n">
-        <v>6.046114776836475e-06</v>
+        <v>0.0001587430451763794</v>
       </c>
       <c r="GC13" t="n">
-        <v>1.305535988649353e-06</v>
+        <v>0.0001496007316745818</v>
       </c>
       <c r="GD13" t="n">
-        <v>3.622196891228668e-05</v>
+        <v>0.0003080392198171467</v>
       </c>
       <c r="GE13" t="n">
-        <v>3.353449210408144e-05</v>
+        <v>0.0002867106813937426</v>
       </c>
       <c r="GF13" t="n">
-        <v>3.602808646974154e-06</v>
+        <v>4.808702215086669e-06</v>
       </c>
       <c r="GG13" t="n">
-        <v>3.787269088206813e-05</v>
+        <v>0.0001312531239818782</v>
       </c>
     </row>
   </sheetData>
